--- a/data/hotels_by_city/Dallas/Dallas_shard_132.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_132.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="896">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Katherine V</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Very clean, very comfortable bed, friendly desk staff, overall great experience. Room has lots of table tops/counters/surfaces that really allow you to spread out and get comfortable, especially if you're traveling for business or a special occasion. Hotel is located right next to a large selection of restaurants that can be easily walked to (less than 0.5 mile distance) for when you want to be near your room and out of the hustle of the city. You can also easily access the highways into Dallas and avoid tolls if you wish.More</t>
   </si>
   <si>
+    <t>91Beaches</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r550248137-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -267,6 +273,9 @@
     <t>This hotel is the best Courtyard at which I stay.  The staff is great, the hotel is in excellent shape, and the bistro food and service is very good.  Hard to find, but worth the effort.  There are many nearby restaurants in case you don't want to eat at the bistro.  The bistro in the lobby serves breakfast and evening meals for an additional cost.  The management team team is also excellent.More</t>
   </si>
   <si>
+    <t>profofacct</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r537230654-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -297,6 +306,9 @@
     <t>My son and I stayed here for the OU v Texas game.  Staff was great and the room was fresh and clean.  The only food available is an expensive Starbucks with little to choose.  Oatmeal and a ham &amp; eggs plate and coffee was $30.  Fortunately there are restaurants within walking distance for lunch and suppper.More</t>
   </si>
   <si>
+    <t>kimborkr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r504562525-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -324,6 +336,9 @@
     <t>This courtyard is conveniently located off of the freeway and near all the usual casual eateries and the mall area.  The rooms are updated and roomy.  The ice machine on the 4th floor is a little loud.   Otherwise this is a great location for a quick overnight if you are passing through the Dallas area.  More</t>
   </si>
   <si>
+    <t>Don M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r503512320-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -348,6 +363,9 @@
     <t>Check in was fast &amp; efficient.  Desk clerk was most congenial.  Upon reaching the room, we found it clean &amp; in perfect order except for the temperature.  I suppose for economic reasons, the thermostat had been dialed up, so the room was uncomfortably warm.  It cooled fairly quickly, however.This trip was to attend a funeral.  To my dismay, when I took my black suit out of the bag where it had been stored since it came from the dry cleaner, I noticed a hole in my pants leg.  I'd packed no 'back up' clothing, so THIS was what I would be forced to wear.  There was insufficient time to shop for a closely-matching pair of black slacks.  My first thought was to use black electrical tape on the inside to cover the hole.  My son went to the front desk to see if anyone in maintenance might have some.The desk clerk contacted someone, and he delivered a whole roll of tape to the room in just minutes.My son returned the unused roll to the front desk, &amp; we made it to the funeral on time.No one noticed!Thanks to the staff.More</t>
   </si>
   <si>
+    <t>mark s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r501189866-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -372,6 +390,9 @@
     <t>AS expected, it's clean, rooms comfortable, great staff and always in the right location.   While I only stayed there one night I was able to get a good night sleep at the beginning of a long week trip.    That is what I need and what I expect.   Courtyard never disappoints.More</t>
   </si>
   <si>
+    <t>Leann L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r500237650-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -399,6 +420,9 @@
     <t>The hotel was a great location in Mesquite. We arrived earlier than expected so we called to inquire if a room was available for early check in. The only disadvantage was it an accessible room. The room is a great size but we had to settle for full size beds instead of queen. The room was nice and clean with a mini fridge, but no microwave. The hotel does not offer a complimentary breakfast but there are many restaurants in the area including inside the hotel. Overall a pleasant stay! More</t>
   </si>
   <si>
+    <t>G_Chopra901</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r498776421-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -423,6 +447,9 @@
     <t>I stayed there last week. Soon-after checking out in the middle of the day, I called the front desk informing them I left my jacket, to which they front desk responded that the housekeeping is busy and unable to check. I kept following up and was told the GM is busy in the meetings and unable to attend my call or call back. He did not even had a courtesy to return a message. Totally untrained staff.I had a similar incident in Oberoi several months ago. They followed up with a call from GM, housekeeping, offering to get my belonging to my destination and spectacular customer service. They made sure I was at peace. Courtyard Marriott mesquite earned itself terrible reputation... Will never recommend.More</t>
   </si>
   <si>
+    <t>texasshopr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r494408500-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -441,6 +468,9 @@
     <t>First time to stay here and possibly our last. We checked in for a three night stay to discover that the light fixture beside the bed had no cover making the area beside the bed extremely bright. Our room was missing the microwave and we had no coffee set ups. We were hungry and tired so we ordered food from the bistro. We got back to the room and discovered our order was wrong. By now it was closed so we made it work and went to sleep. The clerk warned us about the traffic noise and she was right but it was the only one available so we took it. The next day when we left for the day I spoke to the clerk on duty about the things mentioned. She assured me all would be taken care of except the light cover. We requested to be moved. I was told they would call when another room was available but they never did. We got back to the room at 2:00 am to discover housekeeping omitted our room. No clean towels, trash emptied or beds made. I expressed my dissatisfaction to the clerk on duty who promptly apologized and went to fetch towels and coffee set ups. He assured me there would be a credit on our bill for our inconvenience. We had been here barely over 24 hours and had several complaints. The room in general was dark...First time to stay here and possibly our last. We checked in for a three night stay to discover that the light fixture beside the bed had no cover making the area beside the bed extremely bright. Our room was missing the microwave and we had no coffee set ups. We were hungry and tired so we ordered food from the bistro. We got back to the room and discovered our order was wrong. By now it was closed so we made it work and went to sleep. The clerk warned us about the traffic noise and she was right but it was the only one available so we took it. The next day when we left for the day I spoke to the clerk on duty about the things mentioned. She assured me all would be taken care of except the light cover. We requested to be moved. I was told they would call when another room was available but they never did. We got back to the room at 2:00 am to discover housekeeping omitted our room. No clean towels, trash emptied or beds made. I expressed my dissatisfaction to the clerk on duty who promptly apologized and went to fetch towels and coffee set ups. He assured me there would be a credit on our bill for our inconvenience. We had been here barely over 24 hours and had several complaints. The room in general was dark except for beside the bed. The desk area was very dark. You couldn't work at the desk if you needed to. Trash cans are tiny. The parking lot was not well lit. The little balcony was nice. The a/c worked great. Beds were somewhat comfortable. Overall clean room.  Slim pickins for a hotel in this area. With family here we may have to stay here again but will explore other options first. This one was a disappointment. More</t>
   </si>
   <si>
+    <t>Darlene W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r483085589-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -468,6 +498,9 @@
     <t>Absolutely the best customer service I've ever seen.  Young lady named Tamika or Tanika or something like that, I should have written it down.  I checked in on 4/8 to be met by this wonderful young woman.  Pleasant with exemplary customer service skills.  She should be a trainer.  On to the room, the room was great. The toilet seemed to not have enough water in it. I called service and they were there in no time flat!  Room was clean and quiet. Location was great. This was my first Ying visiting the Dallas area.  I will most definitely return again.  More</t>
   </si>
   <si>
+    <t>J. P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r474810648-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -492,6 +525,9 @@
     <t>This hotel was quite lovely. The three girls that checked us in on Thurs April 6 were fun and friendly. Immediately making us feel welcomed with jokes and warmth. The room was supposed to be 2 queens. But we were the only Queens in there. They were full size at best. And for two people close to six foot, they were not adequate.  The rest of the room was quite nice. Good setup. Good air conditioning. Spacious bathroom. The shower was difficult to figure out. There were two handles.  One for the water and one for the shower heads and extra water control. Too difficult for my wants. I look for ease and comfort in hotels, turning on and shutting off this shower was neither. Still a Good stay. Close to several restaurants and easy freeway access. More</t>
   </si>
   <si>
+    <t>LittleIsland2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r461425024-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -519,6 +555,9 @@
     <t>First time staying at a Marriot Courtyard..Easy checking at 9pm..end up with extremely small room on the backside of the hotel. Great selection of restaurants near by..walking distance. To close to the highway heard truck traffic all night.More</t>
   </si>
   <si>
+    <t>scrubmeup2002</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r459398690-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -543,6 +582,9 @@
     <t>Everything was great especially our check in clerk. Lovely woman.  Was disappointed in not having a complimentary breakfast. There was a Starbucks but the afternoon clerk had no knowledge of the specialty drinks such as Frappachinos. Otherwise, the stay was wonderfulMore</t>
   </si>
   <si>
+    <t>vabchgirls17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r384130840-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -570,6 +612,9 @@
     <t>I stayed at the Marriott Courtyard for an extended business trip. The staff is awesome, especially Maddie at the front desk! The bistro staff is very friendly also!! Clean hotel. I would stay again when I have to come back to the Dallas area. ;-)More</t>
   </si>
   <si>
+    <t>Steve I</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r374658889-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -591,6 +636,9 @@
     <t>My wife and I spent one night here with two school-aged grandchildren and had a very nice stay.  The indoor pool was large enough for the kids to play and there were several pool toys available, as well as plenty of towels.  The room had a good sized television and the kids slept on the pullout sofa which had a zippered bag containing clean sheets. The hotel had a small bistro with a bar and a breakfast buffet but we did not try it, other than to get ice since the first floor has no ice machine.  Front desk staff were cheerful and helpful. We'll probably stay here again when we're back in this area.More</t>
   </si>
   <si>
+    <t>KYoungSr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r374237002-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -612,6 +660,9 @@
     <t>We stayed at this location over a year ago for a baseball tournament in the area.  There were several issues with the stay that night including the noise etc.  I was sent a complimentary card to give them another shot.  The location did drastically improve the look of the lobby and the rooms after a recent renovation, so kudos there.  We had a comfortable stay this time.  However, I rate them as average this time because my wife left her earrings in the room after we checked out.  We called as soon as we unpacked and realized (about an hour after we left).  I was miffed that they would ask that we provide a credit card # so that they could charge for mailing the earrings back.  The delivery would be going from Mesquite to Burleson (so not far) and only weigh maybe an ounce.  Flat rate or other shipping methods include insurance and would only charge a business maybe $3.  The couple of dollars is not the issue, but we have left more costly things before (my son's $400 bat) at another chain of hotels and they sent it back immediately NO CHARGE!  To me is seems very petty and not customer service minded not to pay the delivery fee and send the customer's merchandise back.  I am a frequent traveler and Marriott rewards member who prefers the Marriott brand 90% of the time when I travel.  I just...We stayed at this location over a year ago for a baseball tournament in the area.  There were several issues with the stay that night including the noise etc.  I was sent a complimentary card to give them another shot.  The location did drastically improve the look of the lobby and the rooms after a recent renovation, so kudos there.  We had a comfortable stay this time.  However, I rate them as average this time because my wife left her earrings in the room after we checked out.  We called as soon as we unpacked and realized (about an hour after we left).  I was miffed that they would ask that we provide a credit card # so that they could charge for mailing the earrings back.  The delivery would be going from Mesquite to Burleson (so not far) and only weigh maybe an ounce.  Flat rate or other shipping methods include insurance and would only charge a business maybe $3.  The couple of dollars is not the issue, but we have left more costly things before (my son's $400 bat) at another chain of hotels and they sent it back immediately NO CHARGE!  To me is seems very petty and not customer service minded not to pay the delivery fee and send the customer's merchandise back.  I am a frequent traveler and Marriott rewards member who prefers the Marriott brand 90% of the time when I travel.  I just think this was an opportunity to knock it out of the park that they failed to capitalize on.More</t>
   </si>
   <si>
+    <t>sdf66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r373652818-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -633,6 +684,9 @@
     <t>It's not too often that I give five stars but based on my stay at other Courtyard's they earned it! The hotel has been recently renovated, about two months ago as I understand. I was here two nights and every time I walked in I was greeted kindly and with smiles from everyone standing at the front desk area. The new rooms are friendly with folks like myself that travel with multiple electronics. Plugs are everywhere, including USB outlets. They are truly proud of this new beginning and they should be. I'll be back next week and looking forward to it.More</t>
   </si>
   <si>
+    <t>Bernice P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r364588651-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -651,6 +705,9 @@
     <t>Hotel located easy on and off access of interstate. Major restaurants and family entertainment within walking distance. Mall less than a mile away. Staff friendly and personable. Parking good. Would have been nice to have breakfast option. Starbucks in lobby was nice but not complimentary of course. Noise level was high could hear doors closing and people talking at elevator, would recommend requesting room away from elevator. Rooms were nice and clean, hotel very well kept.More</t>
   </si>
   <si>
+    <t>Bill A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r354857843-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -672,6 +729,9 @@
     <t>As a dedicated Marriott traveler I always enjoy staying in a facility that is newly renovated. The room design is modern and very functional. The front desk staff is amazing, all of the women are young business professionals that appreciate you as their guest. The Bistro staff overall is on point with service and willingness to meet the guests request. The Bistro is literally brand new. The attitude prjected by every employee encountered is energetic and update, and one gains the confidence that they care about your stay.More</t>
   </si>
   <si>
+    <t>Texasrose19600</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r353951042-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -693,6 +753,9 @@
     <t>Close to our home,  AC was out, convenient,  clean rooms and comfortable beds....love Marriott.... the AC was nice and cold, so we appreciated  it......family friendly, and wheel chair accessible rooms.  The staff is very cordial and accommodating. More</t>
   </si>
   <si>
+    <t>mchavez2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r350385527-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -717,6 +780,9 @@
     <t>I have stayed here several times, when moving or when maintenance is working on my residence. Although I did have  a few bad stays, overall the place is great! I did return as the most recent manager called me first hand for my opinion. I will return due to customer service care.Thank you Mattie Lonborg for caring about your customers!More</t>
   </si>
   <si>
+    <t>AMTravelerTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r341395537-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -735,6 +801,9 @@
     <t>They will not tell you that is under construction, AVOID!!! free breakfast offered which is a joke, spouses of workers that came from California usually take over the breakfast area no where to sit, room with a balcony was noisy you will hear the noise off the interstate big time. Over all not going back even after the construction the noise makes it a bad choice. The only plus was the staff, they are friendly.More</t>
   </si>
   <si>
+    <t>Dorothy C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r336403639-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -765,6 +834,9 @@
     <t>Renovation going on.  Updated rooms promise to be nice but until construction is completed it is a  mess.  Call the hotel before making reservations to make sure the construction is over before you book.  Price is not discounted to compensate for the inconvenience of the construction.  Staff is making best of the situation but the upheaval is dominant.More</t>
   </si>
   <si>
+    <t>Pedro I C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r334885936-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -783,6 +855,9 @@
     <t>Three stars for stay-Five stars for staffThe hotel is currently undergoing renovation, but even with all the construction, they do a good job of keeping almost everything clean and clear.  Miss Thyme engaged in conversation and made check-in pleasant, asking if there was anything we needed.  Since we only intended to stay the night, we didn't need information on attractions or restaurants.The staff members were particularly helpful when our three year old darted from us and ran into the elevator; they were patiently waiting for us downstairs with him in hand.Beds were comfortable, breakfast was included (but limited to cereal, instant oatmeal, waffles), and restaurants were easily accessible.  There was even a paintball range right next door if you would like to try that.More</t>
   </si>
   <si>
+    <t>Ken C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r325897255-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -810,6 +885,9 @@
     <t>we were there the first week of november '15 for a weeklong training seminar.the front desk was very helpful and greeted you everytime you came and went, we didnt eat there, but the room was always clean, i used the exercise room, pool and the hot tub, all were pretty nice and rarely used by anyonethe only negative was when i was half dressed and a maintenance guy just came walking into my room when the door was locked, it was just weird he didnt knock, i let reception know and they apologized up and downnote: they were starting a renovation the day we left so it will be even nicerMore</t>
   </si>
   <si>
+    <t>Jack B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r309955344-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -858,6 +936,9 @@
     <t>The staff were extremely courteous and professional. However my room smelled and felt musty and dirty. The house cleaning staff did a great job, but  think the rooms really need to be upgraded including new carpets. I would not stay here again.More</t>
   </si>
   <si>
+    <t>Asafata123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r289695200-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -882,6 +963,9 @@
     <t>Our stayed was okay. Customer Services was great and very polite. The hotel really needs renovation. Room did not feel clean to me and the carpet needs better cleaning. I mean for the price that I paid to stay here I would it go to a cheaper hotel and feel the same accommodation. Sorry but did feels as a Marriott hotel. More</t>
   </si>
   <si>
+    <t>IFLY11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r280119175-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -909,6 +993,9 @@
     <t>This hotel is so comfortable and the jacuzzi suites are awesome! We stay here a lot and always look forward to seeing Taylor and Britney at the front desk. They are so welcoming and friendly. Their customer service is seriously above and beyond.More</t>
   </si>
   <si>
+    <t>cdsieb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r279930533-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -927,6 +1014,9 @@
     <t>We were shocked that this hotel was rated 4/5. This hotel is run down.  Carpet did not look clean, a roach crawled out of my towel after a shower, and we noticed multiple instances of poor patch jobs on walls and ceiling.  Marriott needs to choose its properties better.  We've stayed in 2 courtyards and one springhill in the past year that were not up to standards.  This was just another example of a declining Marriott property.  We started staying at more Hilton and Hyatt brands in recent years because of this type of experience. More</t>
   </si>
   <si>
+    <t>Charlotte R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r279348783-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -945,6 +1035,9 @@
     <t>to stay here. The staff is friendly and helpful. It's always neat and clean and the rooms are very quiet. There was a fussy child in the room next to ours but we only heard the sounds in the hallway. Once in the room, it was a sanctuary. We were told they are getting ready to make some changes and some upgrades. Just keep the same friendly service and comfortable beds please.More</t>
   </si>
   <si>
+    <t>Keith A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r275526824-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -972,6 +1065,9 @@
     <t>We travel a lot for my daughter's softball team.  I don't write reviews.  Just don't have the time.  However, Taylor and Alicia were so nice and caring I decided to take a moment to recognize them.  They are excellent examples for how a hotel staff should treat their patrons.  Keep up the good work ladies.Breakfast was really good too btw.More</t>
   </si>
   <si>
+    <t>Miguel V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r274824509-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -990,6 +1086,9 @@
     <t>The ladies at the breakfast cafe were very friendly and provided excellent service! The manager was also very courteous and provided his assistance in getting my flight details ready. He was very helpful and would highly recommend this hotel to anyone!More</t>
   </si>
   <si>
+    <t>jrexbyu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r267921376-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1008,6 +1107,9 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>superbford</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r261457331-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1035,6 +1137,9 @@
     <t>We stayed here one night.  Arrived late after a flight from Chicago.  They got us into our room quickly, which was nice as we were exhausted. Beds were comfy. Room was clean.  Breakfast the next morning was good, with great and friendly service.I think this will be our new hotel in Mesquite when visiting family.  Location is great as far as being close to freeways and restaurants.More</t>
   </si>
   <si>
+    <t>Ashtyandsky</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r259343249-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1059,6 +1164,9 @@
     <t>Best service I've ever had at any hotel extremely helpful staff   Thank you Howie and Vishal. Very well kept place will stay there again when I'm in town the food was great along with the indoor pool. Thanks again to the staff for the extra effort.  Best hotel in townMore</t>
   </si>
   <si>
+    <t>Daveflstc07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r256958766-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1194,9 @@
     <t>The people there are very friendly. Not much in terms of food offering at the hotel with the exception of breakfast. the gym had only 1 treadmill, elliptical and bicycle. They weren't of the best of Marriott. The room and amenities were very good. They are close to many food establishments including Olive Garden, Red Lobster, Hooters, King Buffet, and several Mexican restaurants. They're also next to a sport entertainment complex (batting cages, etc).More</t>
   </si>
   <si>
+    <t>Nailcutter</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r244091820-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1111,6 +1222,9 @@
   </si>
   <si>
     <t>As a Marriott lifetime platinum member I stayed here for 1 night on business. One thing about the Courtyards, Fairfields amd Residences Inn's you never know what you are going to walk in. This was an older Courtyard with a strong odor in the old looking lobby. No upgrade offered, no free breakfast and had to remind the staff member we were Platinum members for our free snack. The room was old and average sized. Same amenities as any other Courtyard. Fitness center had 3 machines and there was an indoor pool. The hotel actually wanted $11 for the same buffet that is free at any of their other properties. Biggest mystery to me is why the Courtyard charges for breakfast for Platinum members while every other Marriott offers some sort of breakfast. More</t>
+  </si>
+  <si>
+    <t>TexAggie2005</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r233205742-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
@@ -1142,6 +1256,9 @@
 Anyway, moving onto the room..  The walls are paper thin and I could hear other people talking across the hall in their room through our door.  At first I thought they were standing in the hall...The price was right, and that's about all that was right with this hotel.  From the moment we stepped in, the smell overwhelmed me.  It was a mixture of mildew and extremely strong air freshener.  I excused it at first since there is a swimming pool just adjacent from the main lobby area.  However, upon going to the 2nd floor where our room was located, I noticed the stench of the air freshener and mildewy smell was also on our floor.  I soon realized that whenever we walked past the ice machine, we heard a whirling sound and discovered a air freshener system with a fan that kicks on every so often and wafts the pungent air freshener down the corridor by the elevator (see attached photo of device).  This was extremely irritating to my lungs, especially since I have asthma.  My husband did unplug it on a few occasions so that my lungs wouldn't seize up on me when coming and going from our room.  After the thing was off for a few hours, you could start to smell the musty smell again, so I think that the purpose was to cover-up the musty smell which is a band-aid and not a solution.  Anyway, moving onto the room..  The walls are paper thin and I could hear other people talking across the hall in their room through our door.  At first I thought they were standing in the hall talking loudly, but nope, they were in their room!  From that point on, I felt like I needed to whisper so that nobody would hear me. The room was very, very tiny.  With 3 people (2 adults and 1 child), we felt cramped.  The bed was in a weird position and, in order to utilize the sofa bed, we had to do some creative furniture rearrangement because the coffee table wouldn't fit anywhere.  I considered putting it out on the back porch, but since it was slightly rainy, I didn't want to mess up their furniture (as if it were possible to mess up such old furniture), so we stuffed it lop-sided under the desk.  The room smelled old, and every time we entered my husband's allergies were set off.  He sneezed the entire length of our trip every time we were in the room.  When we were in the car, he stopped having the attack, so it was either dust or mold or a combination of the two in that room that caused his issues.  My allergies were slightly annoying as well, but mostly by the air freshener smell.  After the cleaning lady visited the room, the room always smelled like that same air freshener used in the hallways.  I don't know if they are spraying it into the AC unit or what, but it took...More</t>
   </si>
   <si>
+    <t>bhavins1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r232066602-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1169,6 +1286,9 @@
     <t>The location was ideal for us (being close to restaurants and the airport). The staff was very accommodating to our needs and always asked if we needed anything, or if they could assist with anything. They maintained the quality expected of Marriott.More</t>
   </si>
   <si>
+    <t>Lisa B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r222048719-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1190,6 +1310,9 @@
     <t>My husband and I almost always stay at this hotel when we come home to Dallas for a visit. We used to live close by and this is NOT an unsafe location, like some other reviewers have mentioned. It's close to shopping and restaurants. The staff is always polite and helpful. A couple of times, when I made the reservations, I mentioned that it was our wedding anniversary or my birthday, and they upgraded our room! That's great customer service! The hotel is in a good location, the rooms are clean and the beds are comfortable. This Courtyard will always have our business when we come to Dallas.More</t>
   </si>
   <si>
+    <t>marvin h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r221445172-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1211,6 +1334,9 @@
     <t>Courteous &amp; friendly front desk people. Room is spacious with a big desk for work.  Good iron and ironing board. Nice little microwave and fridge.  Everything is clean and organized.  Great place for a work trip.More</t>
   </si>
   <si>
+    <t>Troy N Dee L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r218955770-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1236,6 +1362,9 @@
   </si>
   <si>
     <t>The hotel is very nice and so was everyone that worked there we came in and got our room and the girl at the front desk was very helpful and pleasant Thank you for that sometimes people forgets that.... The rooms were very clean smelled awesome when we walked in ours.More</t>
+  </si>
+  <si>
+    <t>Mark F</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r216587420-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
@@ -1266,6 +1395,9 @@
 Finally, I inquired about outdoor running and was told no one does that there and that...We stayed here when we weren't able to make it on time to move-in to our new apartment in the area.As a whole, it is clean, well-furnished, and safe, all typical aspects of a Courtyard. Free wi-fi and an $8 or $11 (plus tax and tip) charge to access the breakfast buffet.What set this property apart in a not so good way were the little things.First, the GPS puts it on the east side of 635, which is just a Lowe's. I had to work hard to find where it actually was, which was pleasant after 12 hours of driving a moving truck. It did this on both of our GPS's.Upon check-in, we waited five minutes to talk to the clerk, which was fine. However, the couple in front of us requested a king bed, was told there were only two rooms left but that they were handicapped. The clerk then said she would give them a free upgrade to a regular room with balcony, king bed, and separate living area just because they are nice. When we went up, no such offer was made- we had to take the handicapped king, which didn't have a good shower. Bottom line- of you're going to offer someone else a special offer, be discreet so others don't feel like they lost out.Finally, I inquired about outdoor running and was told no one does that there and that there was a private gym down the road or I could use their fitness room. In the morning, I took the street to the right of the hotel, made a right on Driftwood, then a left on the next major street and lastly a right at the major street after and passed five different runners. All was sidewalked and able to be run on. It's ok to not know, but don't say it's impossible if you don't know.Overall, a clean place to stay, right off the freeway with lots to eat immediately nearby.More</t>
   </si>
   <si>
+    <t>AlphaRam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r215639666-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1422,9 @@
 We were given Room 324. The room contained a queen bed and a sofa with a foldout bed. The room had a 32” flat screen TV with the channel guide on the TV (very nice), hair dryer, coffeemaker, iron and alarm clock.  The beds and the pillows...My wife and I, as well as two grandchildren, travelled to Mesquite for a short business and pleasure trip. We chose the Courtyard Marriott based on TripAdvisor reviews. Using an AAA membership discount, we paid around $185, including tax, for two nights for 4 people. Before I describe anything else, I want to compliment the wonderful staff. If you are the GM of this property, you have made great hiring choices as the staff assisted us in a genuinely helpful spirit. You cannot train that sort of ability into people. Special mention to Taylor and Adrian, as well as the African-American lady working the front desk on the evening of 7/4 that was doing it all (I apologize for not catching your name, but you were always on the move!). Upon arrival, the property is well-lit and attractive. The check-in process took very little time as compared to other hotels. The lobby was very nice and the elevators operated properly. There were Otis Spunkmeyer cookies that were fresh and complimentary for the arriving guests – nice touch. We had no concerns regarding the safety of our vehicle, or for ourselves, during the stay.We were given Room 324. The room contained a queen bed and a sofa with a foldout bed. The room had a 32” flat screen TV with the channel guide on the TV (very nice), hair dryer, coffeemaker, iron and alarm clock.  The beds and the pillows were comfortable. The heating/air conditioning unit functioned well.  The restroom was clean and everything worked properly. There was no outside noise for the room despite being near a Celebration Station, as well as the intersection of I-30 and I-635. The ice machine worked well. The room does not have a microwave or a refrigerator, but I knew that when I made the reservation. Overall, the room was clean and well-lit. We were not inconvenienced in any way as there were no issues with the room. We did not partake of the breakfast as it was $10.95 per person. Perhaps the food was worthy, but in my mind, I cannot let go of that amount of money for breakfast. Also, with my wife not able to consume food that contains gluten, I was less likely to spend $10.95 for breakfast.The swimming pool is nice and appears to be well-maintained. The hot tub was also very nice and was clean.  The hot tub and the pool both have lifts that will allow handicapped persons to be lowered into the water. I briefly went into the exercise room and was pleasantly surprised to find dumbbells available for use. Any sort of free...More</t>
   </si>
   <si>
+    <t>Brianooch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r214415885-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1308,6 +1443,9 @@
     <t>came in today the address on the Marriott website did not work on the iPhone GPS it sent us to the wrong place. Desk agent took a lot of time and was very patient getting us there. She was busy but never showed any frustration with our phone calls. These little things make all the difference.More</t>
   </si>
   <si>
+    <t>Jason P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r212944512-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1327,6 +1465,9 @@
   </si>
   <si>
     <t>Adrian Gonzales had excellent customer service and went out of his way to make our stay as comfortable as possible. My girlfriend and I had a personal issue that made it imperative for his cooperation. He is very brave.More</t>
+  </si>
+  <si>
+    <t>JackalopeSighting</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r212550486-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
@@ -1358,6 +1499,9 @@
 Being a Courtyard, free breakfast was not included. A nearby Jack-in-the-Box made up for this....My family and I were on our way to San Antonio from Arkansas and wanted to break up the trip. I decided on this hotel because it was on the way and would allow for a shorter drive the following day.It is an older building in an older part of town. There was a shady-looking fellow sitting on the bumper of a car in front of the entrance. The gentleman at the front desk was friendly and helpful, and our room was nice. The building shows its age and our room had a strange smell, but again, it was more than adequate for its purpose.I will say this. At one time I used to clean restrooms as a janitor, and I am also the one who cleans them at home. I take pride in clean fixtures. Now, I have stayed at some pretty fancy hotels and it is not unusual to see streaks on faucets and stains here and there. This place did NOT have them. I was amazed. The cleaning staff is doing a remarkable job. This alone brings this place to a 4 out of 5. The rooms are clean.Also of note is that there is an arcade and pizza place next door with outdoor activities. This was definitely a plus after driving for hours. The kids had a blast.Being a Courtyard, free breakfast was not included. A nearby Jack-in-the-Box made up for this. (We don't have these in Arkansas.)Overall, a nice place to stop, but don't expect a fancy Courtyard.More</t>
   </si>
   <si>
+    <t>Michele G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r208844748-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1376,6 +1520,9 @@
     <t>We were traveling from out of state for our grandmothers funeral and needed a place to stay for two nights. Three generations needing two rooms. The Dallas area hotels had bad reviews and or bad neighborhoods, with too high of prices. We went in and spoke to Adrian, and he gave us a "Grievance" rate for both nights! What a caring young man. He worked the desk both days and always looked professional and helped us to get coffee and other things we needed.  The highway noise wasn't bad, and my room faced that direction. We even walked next door to the Celebration Station.    The ONLY thing I didn't care for was no Complementary Continental breakfast of any kind. It was over seven dollars up to eleven dollars. We ate elsewhere.Overall, it was a good stay considering the reason we were there.More</t>
   </si>
   <si>
+    <t>4states</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r200994020-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1400,6 +1547,9 @@
     <t>This hotel is basically on the intersection of three major roads with some rather dubious looking properties around it. There is a lot of noise from the major roads, the parking lot at the back, and other room doors banging loudly / people talking in the corridors.The hotel parking lot is not well lit and does not feel safe. The area around the hotel does not feel safe in daytime, never mind nighttime.The gentleman at the desk was totally over-run with check-ins as he was the only person on duty despite the hotel being overbooked and the wait to check in was long because he had to deal with lots of problems. He was definitely trying his best to resolve everything.The property is in desperate need of renovation - the furnishings are badly stained, the fridge in our room was clean but badly dented, the door trim was peeling. The sofa sags so much we might as well sit on the floor.The room is fairly clean however the first flannel I picked up was dirty, there was water left in the tub and there was hair on the toilet seat.The staff are obviously trying to make the best of a very bad property.More</t>
   </si>
   <si>
+    <t>Brklynrider</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r200315831-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1418,6 +1568,9 @@
     <t>I stayed here recently for two nights on business.  The hotel was very nice.  As some of the previous reviews have mentioned the service at this hotel is very good.  The check in was very efficient and friendly. The room was quiet, comfortable and clean.  The nearby restaurants are basically the bigger chains but were sufficient and several were within in walking distance. Hotel is nearby two freeways, so not much to look at on the outside unfortunately, but inside the hotel is quite nice and comfortable.More</t>
   </si>
   <si>
+    <t>KATHRYN C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r196170523-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1439,6 +1592,9 @@
     <t>Exceptional front desk service with big smiles and greetings.  Facility has nice warm indoor pool and the most powerful hot tub I've ever enjoyed.Despite hosting a huge group of Oklahoma cheerleaders and their families, the parking was plentiful, hall ways clean and fresh, &amp; elevators were always available. There was no noise.  That group of kids were so polite!The staff kept a keen eye on a possible slip hazard near pool entry door.  They were constantly mopping it up.The bedding was deluxe, nice balcony [view of freeway...but sunshine and air], big television with great selection of movies [fees were too high], &amp; large clean bathroom.The breakfast buffet was quite a spread &amp; moved quickly.  Only wish we could have coffee mugs instead of those styro cups.More</t>
   </si>
   <si>
+    <t>teachosc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r182028453-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1457,6 +1613,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>PatriciaMM1884HF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r177899493-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1475,6 +1634,9 @@
     <t>August 2013</t>
   </si>
   <si>
+    <t>RVingNolefan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r173426626-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1493,6 +1655,9 @@
     <t>The level of service I received was exceptional.  When I arrived I was with a co-worker and we were setting up in the lobby to do some work and Adrian, one of the managers on duty, offered the unused meeting room and provided a power strip so we could use our computers.  We needed a color copy of a presentation and a nice young lady helped us get it printed to take on our appointment.  I interacted with the staff several more times and they were very helpful and friendly.  The property is standard Courtyard that has a few miles on it but iis well kept and clean.  The location is great, at the intersection of I-30 and I-635.  Right next door is a Celebration Station plus many restaurants within walking distance.  Breakfast IS NOT complimentary, plan on about $15.  I recommend this hotel based on customer service and location.More</t>
   </si>
   <si>
+    <t>William H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r172184718-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1508,6 +1673,9 @@
     <t>We arrived early and everything was ready. The front desk staff were excellent and they upgraded us to a room with a balcony. The night desk attendant was extremely friendly, sorry I can't remember his name, and were joked about football teams. Room was clean, as expected. Overall a very pleasant stay.</t>
   </si>
   <si>
+    <t>Susan P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r171994756-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1526,6 +1694,9 @@
     <t>I had a double lung transplant 2 yrs ago at Baylor. I had to come back every month for over a year and after staying here the first time, knew it would be best for my safety, health. It's close to about any type of restaurant you'd want and shopping is the greatest and close. It is always clean and the staff is super. Adrian and Alyssa are my favorites.  They always make you feel so welcome.  Whether it's overnight or several nights, the Courtyard is my favorite. I just had my 2nd year transplant birthday and got to stay with y'all for 3 days and will be back later this month.More</t>
   </si>
   <si>
+    <t>Spahts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r169471253-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1541,6 +1712,9 @@
     <t xml:space="preserve">My husband and I stopped here during a cross-country road trip. We wanted somewhere that was clean and comfortable in a location close to the interstate. This hotel had exactly what we wanted and was a great value. We had dinner at Posado's Cafe right next door and loved it. The fact that breakfast wasn't included didn't bother us because it made the rate less than other hotels, and we love going to Starbucks anyways (there's one just around the corner where we stopped on our way out of town). </t>
   </si>
   <si>
+    <t>L T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r167716245-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1565,6 +1739,9 @@
     <t>The hotel facilities were very pleasant and the staff members were very helpful. This particular room was clean, spacious neat with a refrigerator and microwave. The bed was large and comfortable.The lobby had complimentary coffee, chocolate.The hotel had a good hot food area for purchase at reasonable prices.If you wanted other fare, there was a large variety of outside restaurants nearby.Parking and computer access were free. There was also hotel supplied free use computer near the lobby  area.More</t>
   </si>
   <si>
+    <t>Julie J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r167076221-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1583,6 +1760,9 @@
     <t>I had a wonderful stay this weekend at this hotel. The hotel was really clean. The staff at the front desk went over and beyond to help us with directions whenever we needed it. I think the guy name was Rolando and he was extremely helpful with everything. If I had one complaint it would be that there were a few ants in the bathroom area and I hate insects. It was very quiet and being a light sleeper I enjoyed that.More</t>
   </si>
   <si>
+    <t>chris h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r166892358-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1601,6 +1781,9 @@
     <t>I have an good overnight stay, but I was most impressed by the customer service I received.  I was traveling from Little Rock and decided to change my plans at the last minute and not go to Shreveport.  I contacted customer service and asked for assistance in changing my reservations from Shreveport to a Courtyard outside Dallas.  The customer service was more than professional and stayed with me the entire time I was on the phone to locate a Courtyard on my route.  Thank you!More</t>
   </si>
   <si>
+    <t>Sportsmom55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r165861452-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1622,6 +1805,9 @@
     <t>We enjoyed a two night stay at this very clean Marriott hotel.  This the best front staff that I've had the pleasure of having daily contact with.  Room was very comfortable, but I didn't care for the sterile bathroom and the small sink outside.  It needs some updating.  Rooms were very quiet.Breakfast was fine, but a little hectic due to one waffle machine in a small area.Great location with a variety of restaurants within walking distance.I would stay here again!More</t>
   </si>
   <si>
+    <t>Macindenver</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r165545458-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1640,6 +1826,9 @@
     <t>I only stayed here one night but found this to be a nice stopover.  Very good front desk staff as others have stated.  Clean comfortable room and good hot breakfast.  Easy access to I-30 East and lots of food choices in the area made this a good choice for my trip this time.  Road noise was not a problem even though the hotel is close to the Interstate.More</t>
   </si>
   <si>
+    <t>wslocum</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r163580565-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1664,6 +1853,9 @@
     <t>From the time I checked in to the day I checked out, I felt like I was home. The faces were different but the friendliness and courteous attitudes of both the front desk staff and house cleaning made me feel at right at home. Thank you for an enjoyable stay!More</t>
   </si>
   <si>
+    <t>Elizabeth W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r163560437-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1679,6 +1871,9 @@
     <t>The best front desk employees ever.  Allison and Adrian, went above and beyond the call of duty and rate an exceptional 10+.  Unbelievably helpful.  An older facility, hard to locate but very clean and well kept.  Near many eateries, which is a great convenience.  Quick maneuvering to most major interstates/highways/thoroughfairs.More</t>
   </si>
   <si>
+    <t>F198</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r163500925-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1697,6 +1892,9 @@
     <t>We had booked a room at a LaQuinta but when we arrived it was aweful and we couldnt stay. My wife called and found another hotel that we drive to and there was a drug deal going down in the parking lot there . Then we called this Marriot and when we arrived about 10:30pm with two tired children and afraid what we would be faced with next, we were presently suprised by the excellent service and assistance from Adrian. He got us checked in and the hotel was clean and the bed was great. We stayed two nights and the customer service couldnt have been better. I am in a business where i supervise 32 employees and i was very impressed with the superior customer service we recieved. The manager is extremely lucky to have such a great staff. We were very happy with the rooms even though it was a little older it was very well kept. We recommended this hotel to friends that stayed there on our second night and will recommend it to everyone.Thank you Adrian and Staff.More</t>
   </si>
   <si>
+    <t>Sarah S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r162524029-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1724,6 +1922,9 @@
     <t>I stayed here on a business trip and was immediately greeted with a smiling face at the front desk upon checking in. It was a very quick process. The whole facility is very clean. I especially liked the two bottled waters and snack waiting in my room, especially after a long meeting that day. The breakfast buffet was nice and offered more healthy options. The exercise room was great. I will definitely stay at this hotel again when given the chance.More</t>
   </si>
   <si>
+    <t>danmar273</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r162095750-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1766,6 +1967,9 @@
     <t>Excellent service! Adrian was so helpful! The rooms were very clean and spacious. The staff at the breakfast area were great and very polite. I will certainly return for another stay at this location. Thank you.More</t>
   </si>
   <si>
+    <t>Bill P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r162026081-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1781,6 +1985,9 @@
     <t>We were greeted with enthusiastic smiles and a welcoming attitude.  Our check in was quick and easy.  Once in our room we noticed that our request for a feather free room had been overlooked.  On our way out, we simply stopped by the front desk to make them aware of our request and it was immediately taken care of .. not only that, but when we returned to our room there was a card under the door from the front desk supervisor apologizing for the miss and offering us two meal passes for breakfast and a 1000 pts on our reward program.  Kudos to the management and staff.  This is the reason that we always stay at Marriott Courtyard anywhere we go.  They always seem to get it right!  I tip my hat to Alyssa and the other staff for a job way beyond well done!More</t>
   </si>
   <si>
+    <t>psdgirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r161798196-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1799,6 +2006,9 @@
     <t>I traveled from Louisiana to Garland for a doctor's appointment.  This hotel was close to his clinic and on my return trip home. It was also close to the Town East Mall as well as a large selection of restaurants. The staff The staff was very friendly and helpful.  The hotel was clean. My husband  said it was the best sleep he has had in a while. He actually slept passed 5 am.More</t>
   </si>
   <si>
+    <t>Kent O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r160824717-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1817,6 +2027,9 @@
     <t>this hotel is a nice property but my advice is to lock it up or do not leave it in the parking lot.  I was loading my belongings in my truck the last morning early and placed my brief case in the truck bed leaving tailgate down to retrieve remaining items from inside only to return and find my brief case missing.  No one was in sight in the lot at this time which unfortunately led me to believe I was safe but as it turns out I was not.  LOCK IT UP!More</t>
   </si>
   <si>
+    <t>francesvk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r159143391-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1844,6 +2057,9 @@
     <t>This Courtyard needs to be updated and refreshed. Its saving grace is its location and the staff. The drain in the shower did not work properly which left you ankle deep in water. Even though I had requested a quiet room, we were given a room by the ice machine and the elevators. The staff member offered to change our room but we were settled in and my husband did not want to move all the luggage again. We have stayed in other Courtyards and this one did not live up to its reputation.More</t>
   </si>
   <si>
+    <t>Lisa0425</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r158629729-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1868,6 +2084,9 @@
     <t>The night shift desk agent was excellent. I ended up needing to visit an emergency room and he helped me locate a close facility and assisted me in contacting traveling companions in another room for a ride. He was compassionate and kind.More</t>
   </si>
   <si>
+    <t>willypete</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r158475959-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1886,6 +2105,9 @@
     <t>This stay was off to a great start by the young lady at the front desk. Alyssa (?) was one of the most charming and professional people we have encountered recently. She greeted us with a smile and made sure that we had everything we needed. Our room was clean and spacious, and the bed was as good as ours at home (no sore back the next morning) The only reason this was not a perfect stay was because we made the mistake of having breakfast there. The lady who works there was very nice and helpful, but the breakfast was really, really bad and quite expensive. Avoid at all costs-you would be happier at any breakfast restaurant at a fraction of the price. Except for that, I would recommend this hotel, and would stay there again.More</t>
   </si>
   <si>
+    <t>Chris F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r158330305-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1904,6 +2126,9 @@
     <t>Although I am a loyal Marriott guest, this is the first Courtyard that I have stayed at for some time.  I was not sure what to expect from this group within the Marriott brand.  From the time that we walked in the door, I knew that we would have great stay.  We were given a great welcome, recognised as elite guests and asked if we had any room preference.  We asked for quiet and were given a room at the back on the top floor ... Perfect!The room was very comfortable with the excellent Marriott beds ... the bathroom was fine with nice toiletries (so my wife tells me).  A small but adequate fridge and microwave are provided.During our stay we met many of the staff ... all were prepared to stop and speak with us and provided help when needed.  We were very I pressed with the taxi service that the hotel use ... our driver was very knowledgeable on Dallas and made the ride interesting and fun ( if we are ever back in the area, we will definitely ask for Amin ).  The hotel is not the easiest to find but the directions given on the hotel website are helpful.The hotel provides 24 hour coffe in the lobby and biscuits early evening.  breakfast was good value andvthe service was great.  There are a number of restaurants for dinner within walking distance of the hotel.More</t>
   </si>
   <si>
+    <t>Michael E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r155731827-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1925,6 +2150,9 @@
     <t>I stayed at the Courtyard a couple weeks ago.  The place was clean, everything worked, and the personnel were friendly and very helpful and informative.  It is freeway convenient, and there are countless restaurants you can walk to across the parking lot.  The breakfast in the morning was good, usual fair, but all good.  I have stayed at the Courtyard every year for the past five years on business trips, and I will be staying there again next March.  Good value for the money.  The hotel is also smoke-free :-)More</t>
   </si>
   <si>
+    <t>usscvr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r155149607-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1949,6 +2177,9 @@
     <t>As a Marriott Platinum Premiere Elite member, I have stayed a lot of nights with many, many Marriott properties. I have seen the very best Marriott can offer, and I have experienced the not so good. Although the property is beginning to show its age a bit, the Mesquite Courtyard did not let me down. The property was clean and well maintained. The room was also clean, well maintained, and confortable. Even being right on the freeway frontage road (and a room facing the freeway), traffic noise was minimal. The staff really made the diffrence. Right away I noticed that the staff was well trained and expedient. Every member of the staff I encountered was warm, friendly, professional, and attentive to customer's needs. All things considered, we all know the staff can be the difference between "average" and "excellent." The staff here firmly places this property in the Excellent category. Well done.More</t>
   </si>
   <si>
+    <t>TechMarauder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r153395634-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1970,6 +2201,9 @@
     <t>I recently stayed at this property for a night.   The welcome was warm and friendly (and every interaction I had with the associates exceeded expectations).  This property needs a refurbishment though.  The beds are starting to wear, the couches are old, and the Internet connection crawls.  Nonetheless, it's a clean hotel and if you need to be in the eastern part of the Metroplex it's a decent place to stay.  More</t>
   </si>
   <si>
+    <t>stallenjan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r151226638-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -1997,6 +2231,9 @@
     <t>I enjoyed my recent stay here. I had a room on the 2nd floor. I was clean, quiet, and spacious. This hotel definitely is a little older but it isn't too noticeable. The staff were all fantastic. There was typically freshly made popcorn in the lobby each day and sometimes there were cookies. This hotel is in a good location,close to tons of shopping and restaurants. Highways are also close which makes is great to get to areas in the DFW metroplex.More</t>
   </si>
   <si>
+    <t>cmac1177</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r148893946-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2013,6 +2250,9 @@
   </si>
   <si>
     <t>Very nice hotel. Staff was great. Double room was a little small for 2 adults and 2 teens. Great area, lots of resturaunts and other festivities within a 5 mile radius. Indoor pool and hot ub was wanderful. Queen beds seemed small, but felt great! Quiet, really enjoyed my stay. BeautifulMore</t>
+  </si>
+  <si>
+    <t>JBretteD</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r138225039-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
@@ -2046,6 +2286,9 @@
 The happy hour food was ok, free beer is always free beer.  The fitness room was fine, the picture on the website does not show the free weights, which was a nice suprise.  Although, with the weights it would...I have stayed about about a dozen Courtyards this year, and this one is pretty standard for the older ones.  I did not have a reservation, and walked in looking for a room at about 6pm.  I was given the room by the elevator, ice machine, and on interstate side, I looked out over the front entrance roof, and I had the older, small vanity/sink type room.  I guess they were full, I thought it odd to put a Marriott Platinum Elite member in the least desireable room.  I was tired and had work to do so, did not go back down to get another room. There was not a lot of noise, and I usally don't have issues.  However, the person who filled up his cooler at 4:30 am did get me.  I did not see the friendly and helpful staff, referenced by other reviews,  the young woman at the desk seemed a bit bored when I checked in and the few times I walked by.  When I left in the morning, the only person at the desk was someone from housekeeping, and I did not have time to wait for a staff memeber to come and talk to me.  The happy hour food was ok, free beer is always free beer.  The fitness room was fine, the picture on the website does not show the free weights, which was a nice suprise.  Although, with the weights it would be nice if they could put a small bench or mat in the room to use with them. The location is good, easy on and off the interstate and a ton of restaurants within easy walking distance.More</t>
   </si>
   <si>
+    <t>brent6482003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r135110141-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2073,6 +2316,9 @@
     <t>Very clean, super large room seperate living room with balcony. Bed was great better than at home!! Room was clean with no unusual smells, very large bathroom with double vanities. 2 large flatscreens in rooms, mini fridge, microwave, make sure you add the breafast to your room price, it has everything and nice staff! Great location shopping, all kinds of restraunts, easy to find! Town East Mall blocks away! Only problem was a small vibration in the LR area under floor, not bothersome but noticeable, doesn't occur in bedroom? Well overall you cant beat the price or room size, we will be back!More</t>
   </si>
   <si>
+    <t>GinoG123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r126939992-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2100,6 +2346,9 @@
     <t>Best place to stay in Mesquite hands Down.  Ashley, Russell, Adrian and Sandy were all fantastic.  They made every aspect of my stay great.  Ashley made sure I was in the room I liked and she always had fresh baked cookies. Russell even gave me his secret Chili recipe.  The location is great with great entertainment and dinning a short walk away.  The employee’s made it a very comfortable stay and I felt like I was family----  Definitely recommend Great Job!More</t>
   </si>
   <si>
+    <t>gary g</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r126554715-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2121,6 +2370,9 @@
     <t>The accommodations were more than adequate and I cannot wait to come stay at the Mesquite Courtyard again.More</t>
   </si>
   <si>
+    <t>Craig Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r125933471-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2148,6 +2400,9 @@
     <t>I have been staying at Courtyard Mesaquite since the middle of January and the staff here is first rate, all the way from housekeeping to the GM.  Every person I have encountered has been polite, courteous, helpful and always has a smile and a kind word to say. There have been a couple very small issues that were taken care of immediately.  To me, they weren't that important, but to the hotel staff every issue was an important issue.Great location, many restaurants within walking distance.I would like to especially thank Russell, Ashley and Adrian for making my extended stay as comfortable as possible.More</t>
   </si>
   <si>
+    <t>AppsMan3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r125730014-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2166,6 +2421,9 @@
     <t>Stayed here for a couple of nights for business.  Had a couple of issues with the room to start off with, however the management and staff here really stepped up.  They fixed the issues in addition to awarding me with some extra Marriott Points.  The Manager Russell and the evening supervisor Ashely are wonderul!! Great service all the way around.  I have stayed in nicer hotels in the past but with bad service and rude employees.  This hotel needs some updating but the staff here is all about customer service and that is very important to me!!More</t>
   </si>
   <si>
+    <t>EdB446</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r125729261-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2181,6 +2439,9 @@
     <t>Everyone at this hotel is nice &amp; friendly.  Great breakfast in the morning, even cook to order eggs. Managers party on Wednesday afternoon, good cold beer.  Ashley Williams always happy to assist your every need. Need computer help, Adrain will figure it out for you. Great location for all the good restrauants. Fun center for the kids next door, batting cage, minature golf etc. I stay at marriott about 180 nights a year , this is one of my favorites. You won't be disappointed.  Ed Bichon, Bossier City, LAMore</t>
   </si>
   <si>
+    <t>Queentooty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r125719766-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2202,6 +2463,9 @@
     <t>This courtyard was In need of a redo but the room was clean and staff was nice. The water never got hot and my shower was lukewarm. When I mentioned it on the way out the desk clerk thanked me and gave me rewards points for my disappointment . A manager emailed me during the day to say they found the problem. :)More</t>
   </si>
   <si>
+    <t>Jennifer P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r123582190-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2227,6 +2491,9 @@
   </si>
   <si>
     <t>I recently stayed at this location during my wedding. This location is not only a great combination of Location, Price, and Cleanliness this location also has some of the coolest staff around. Location: Right near all the local eating places, right off restraunt row....Able to walk to dinner and walk back. Price: Comparable to the area...great for inddor pool, and full breakfast buffetStaff: The staff is second to none, They made my little kid popcorn, The breakfast ladies made us omlets, and the Management was on site welcomning us as well. Attention to detail.More</t>
+  </si>
+  <si>
+    <t>Norman_Sooner</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r123322366-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
@@ -2253,6 +2520,9 @@
 Cons: Hard to find and really hard to get to from some directions - best bet is to take Town East Blvd. exit off I-635 and turn west, then take a right at the first light.  You will end up at the highway service road which is one-way.  Turn right and you will see the hotel on the right.  Also, the counterspace in the sink/dressing area is miniscule and there is some noise from the nearby...At the advise of a good friend, my wife and I stayed here over MLK weekend for a nearby event and found it almost ideally suited to our needs at a very good price.After a bit of a challenge finding the property (tip: don't arrive late at night if you're unfamiliar with the area), we were offered a room upgrade since business was kind of slow.  Our room was smallish but comfortable and was all we really needed with a small refrigerator, microwave and flat-screen TV.  They even accommodated our request for a room on an upper floor away from the elevator/ice machine.Pros: Friendly and helpful staff, clean room, VERY comfortable bed with two kinds of pillows and soft sheets/duvet, plenty of storage in dresser &amp; closet, good shower, plenty of towels, convenient to LOTS of restaurants and shopping, fairly easy access to I-635 and I-30. Would be a great place for families as there is a Celebration Station immediately next door.Cons: Hard to find and really hard to get to from some directions - best bet is to take Town East Blvd. exit off I-635 and turn west, then take a right at the first light.  You will end up at the highway service road which is one-way.  Turn right and you will see the hotel on the right.  Also, the counterspace in the sink/dressing area is miniscule and there is some noise from the nearby freeway if your room faces the front of the hotel.All in all, we would defintely stay there again if we needed a room convenient to the NE Dallas/Mesquite/Garland area.More</t>
   </si>
   <si>
+    <t>USMuseFan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r118653872-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2274,6 +2544,9 @@
     <t>When we walked in we gave each other a look knowing that this was not one of the more updated Courtyards. I found the lobby to be stuffy and old. The room had a very small bathroom counter and just cramped. The bed was comfortable, but the room was not laid out very nice like the other Courtyards I've stayed at. It has an old and dirty feel to it. They need to update this hotel lobby and the rooms. I'm staying at the Hampton Inn Convention Center for my next trip in November. Won't stay here again.More</t>
   </si>
   <si>
+    <t>LSUFAN67</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r96930127-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2295,6 +2568,9 @@
     <t>This is my third stay at this Marriott Courtyard.  The staff is excellent from the front desk folks to the restaurant staff there all very accommodating and friendly.  When I'm here my business is in Terrell which is about 20 minutes away but the drive is worth it.  There is a great selection of restaurants near by and if your traveling with kids there is a Celebration Station next store.More</t>
   </si>
   <si>
+    <t>ServantResources</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r82591929-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2313,6 +2589,9 @@
     <t>Seasoned Marriott user-platinum level. Disappointed w moldy smell in stairway and halls. Poor location by loud hwy. Lots of restaurants close is the only +. Also-VERY difficult to get back on hwy!!More</t>
   </si>
   <si>
+    <t>non-smoker64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r49496708-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2332,6 +2611,9 @@
   </si>
   <si>
     <t>Stayed 2 separate nights in October 2009. Driving to and from Austin Texas, (home in Memphis, TN) arrived late, left early. I was there for a nights rest only - in and out.When my bill arrived I was charged $406.00 for the second night - with a $250.00 smoking fee.When I called I was told that they "have proof" - i.e., pictures of cigarrette butts (How could this possibly prove that I was even in the room where the butts were found - let alone that they were found in the room I stayed in?We were told there is no recourse - the charge is the charge.Now a charge of $250 is one thing but I am far more upset over being accused of doing something that I not only would not do but that I am violently opposed to. I positively hate cigarrette smoke.This is hopefully just a mistake (lets hope it isn't a scam) but it is a bad one and not just costly but expensiveMore</t>
+  </si>
+  <si>
+    <t>hometownhorn</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r37282319-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
@@ -2361,6 +2643,9 @@
 The TV reception cuts out and the available channels do not include any music related channels (MTV, VH1, CMT, BET) but there are SIX news channels - CNN, CNBC, MSNBC, Fox News, CNN Headline News, and CSPAN. I mean CSPAN? Really?!
 There is a nice, fairly large desk in the room, but there is no USB port, so that you have to use wireless to connect to the internet. I usually prefer to plug straight in to get internet access in hotels, since wireless networks from hotels don't always have strong signals. The wireless network at this hotel was no different, it cut in and out - so make sure to save your work often.
 The decor in the room was very tasteful. The pictures and mirrors on the wall were very...Okay, I kind of wanted to just use this line from the Verizon Wireless commercial, but in this hotel, this statement is true. The washcloths and bathmats are Marriott brand and they are very soft, but the bath and hand towels are Preferred Comfort brand and are fairly scratchy. Other bathroom complaints: The toilet is "low-flow" and may take a few flushes for everything to go down. The coffee maker sitting on the bathroom counter makes the small space all the more cramped. The door to the bathroom does not open/close when the bathmat is on the floor, you have to scoot the mat out of the way. The TV reception cuts out and the available channels do not include any music related channels (MTV, VH1, CMT, BET) but there are SIX news channels - CNN, CNBC, MSNBC, Fox News, CNN Headline News, and CSPAN. I mean CSPAN? Really?!There is a nice, fairly large desk in the room, but there is no USB port, so that you have to use wireless to connect to the internet. I usually prefer to plug straight in to get internet access in hotels, since wireless networks from hotels don't always have strong signals. The wireless network at this hotel was no different, it cut in and out - so make sure to save your work often.The decor in the room was very tasteful. The pictures and mirrors on the wall were very nice. There was a couch and coffee table in the room. The hotel is all non-smoking, so that's a plus.Other complaints - breakfast is not free, even though the offerings are similar to a Fairfield Inn or Holiday Inn Express, where breakfast is free. The front door to the hotel is manual, not automatic, which doesn't seem like a big deal, but when you're trying to haul all of your luggage through a door that you have to pull open yourself, it can be a pain.Lastly, there is only one entrance to the front of the hotel from the access ramp, and there is only a tiny little sign by the driveway, so be on the look-out or else you might miss the entrance and have to circle back around.More</t>
+  </si>
+  <si>
+    <t>Suzi T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r29423720-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
@@ -2413,6 +2698,9 @@
 Tubs are standard size with no frills like...A colleague booked our group at this hotel because the location was convenient to our meeting location and restaurants.    I read the reviews and had my doubts, but now that we're here I have discovered some pleasant surprises.  Here's the pros and cons:Pros:Customer service is superb in every area -- front desk, breakfast staff, housekeeping &amp; management.The bedding is soft and cozy, very similar to a Hampton Inn, with a just-right mattress and lots of pillows.The towels and wash clothes are superior to even the nicest of hotels (soft and supple).The pool is nice sized and very inviting with nice chairs and a gazebo.The breakfast buffet is very good -- eggs, bacon, potatoes, toast, sausage, fresh cut fruit, cereal, juice, and all the normal continental breakfast items.There are always complimentary fresh baked cookies at the front desk.The hotel is within walking distance to Pasados (excellent mexican food), Red Lobster, Hooters, Olive Garden, Outback and Cracker Barrel;  and a short drive to Fridays, Quiznos and Chiles.Hotel is on the frontage road of I-30 and easy to find.Parking &amp; internet is free.Cons:   The internet in the rooms is wireless - no land lines.The TV's are old.The furniture in the rooms is very basic -- no frills -- except for the bed which is excellent.Refrigerators and microwaves appear to be scarce.Tubs are standard size with no frills like curved rods, ect. -- but nice water pressure.I can't say enough about the staff here.   It's hard to single one out, but I want to mention that Gilles went above and beyond to make my stay a pleasant experience.    I had a small issue with my room, reported it to him, and he showed up within 5 minutes and made me a very happy lady.    Bravo to the staff!   I'll be back next time I visit the area.More</t>
   </si>
   <si>
+    <t>hellogoodbye_7</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r7968329-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2431,6 +2719,9 @@
     <t>June 2007</t>
   </si>
   <si>
+    <t>gbthomas66</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r5774754-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2452,6 +2743,9 @@
     <t>I stayed here for 3 nights on business in August 2006.  I must say it was a very enjoyable stay.  It's right at the interchange of I-30 and I-635.  I wouldn't say it is close to touristy stuff.  But it was close to where I had business.The room I had was a little less spacious than I have seen at other Courtyards.  But I was by myself, so it didn't really matter.  It was very clean.  Free high-speed internet (wired).  Very comfortable bed.  My room faced a very busy freeway, but the noise did not keep me awake (and I'm a light sleeper).  Good soundproofing perhaps.The staff was extremely courteous and helpful.  The price was very reasonable.  The breakfast was very good (combination of hot and cold items).  My particular room rate included breakfast, so I'm not sure how much it normally costs.  It has an indoor pool and jacuzzi.  Looked nice.The hotel is located at the end of a string of quality sit-down restaurants.  There are probably a dozen good restaurants (Outback, Olive Garden, Razoo's, Japanese, and others) within a short walking distance.If I have business in the area again, I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>Derek Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r5352533-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -2468,6 +2762,9 @@
   </si>
   <si>
     <t>June 2006</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d106629-r2329459-Courtyard_Dallas_Mesquite-Mesquite_Texas.html</t>
@@ -2987,43 +3284,47 @@
       <c r="A2" t="n">
         <v>36394</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>127044</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3041,56 +3342,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36394</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>79465</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>5</v>
@@ -3108,13 +3413,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -3127,28 +3432,28 @@
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
@@ -3165,13 +3470,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
@@ -3184,37 +3489,37 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -3232,56 +3537,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36394</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>127045</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3293,56 +3602,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36394</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>82316</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3354,56 +3667,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36394</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>34636</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J8" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
         <v>102</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" t="s">
-        <v>104</v>
-      </c>
-      <c r="K8" t="s">
-        <v>105</v>
-      </c>
-      <c r="L8" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>98</v>
-      </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -3419,56 +3736,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36394</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>60037</v>
+      </c>
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -3484,56 +3805,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36394</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>49409</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3545,56 +3870,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36394</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>127046</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3610,56 +3939,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36394</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>125755</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3671,56 +4004,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="X12" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36394</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>9417</v>
+      </c>
+      <c r="C13" t="s">
+        <v>150</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="O13" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3732,56 +4069,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36394</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>127047</v>
+      </c>
+      <c r="C14" t="s">
+        <v>160</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3793,56 +4134,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="X14" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="Y14" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36394</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>127048</v>
+      </c>
+      <c r="C15" t="s">
+        <v>169</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="J15" t="s">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="K15" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="L15" t="s">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3858,56 +4203,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36394</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>127049</v>
+      </c>
+      <c r="C16" t="s">
+        <v>179</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3919,56 +4268,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="X16" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36394</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>127050</v>
+      </c>
+      <c r="C17" t="s">
+        <v>188</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="L17" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O17" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3980,56 +4333,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="X17" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="Y17" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36394</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>127051</v>
+      </c>
+      <c r="C18" t="s">
+        <v>198</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="J18" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="L18" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="O18" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -4047,56 +4404,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="X18" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36394</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>127052</v>
+      </c>
+      <c r="C19" t="s">
+        <v>206</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="O19" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -4114,56 +4475,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="X19" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="Y19" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36394</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>127053</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="O20" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4175,56 +4540,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="X20" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36394</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>127054</v>
+      </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="O21" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -4240,56 +4609,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="X21" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="Y21" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36394</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>44167</v>
+      </c>
+      <c r="C22" t="s">
+        <v>229</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="J22" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
       <c r="K22" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="L22" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="O22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="n">
@@ -4305,56 +4678,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="X22" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="Y22" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36394</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>127055</v>
+      </c>
+      <c r="C23" t="s">
+        <v>237</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="J23" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="K23" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4366,56 +4743,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="X23" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="Y23" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36394</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>127056</v>
+      </c>
+      <c r="C24" t="s">
+        <v>245</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="K24" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="n">
@@ -4431,56 +4812,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="X24" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="Y24" t="s">
-        <v>232</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36394</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>127057</v>
+      </c>
+      <c r="C25" t="s">
+        <v>254</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="J25" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="K25" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="L25" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -4498,56 +4883,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="X25" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36394</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>7997</v>
+      </c>
+      <c r="C26" t="s">
+        <v>261</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="J26" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="K26" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="L26" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="O26" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4559,56 +4948,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="X26" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="Y26" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36394</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>127058</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="J27" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="K27" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="O27" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -4626,56 +5019,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="X27" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="Y27" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36394</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>21893</v>
+      </c>
+      <c r="C28" t="s">
+        <v>279</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="J28" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="K28" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="L28" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4693,56 +5090,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="X28" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="Y28" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36394</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>1265</v>
+      </c>
+      <c r="C29" t="s">
+        <v>289</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
       <c r="J29" t="s">
-        <v>266</v>
+        <v>292</v>
       </c>
       <c r="K29" t="s">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="L29" t="s">
-        <v>268</v>
+        <v>294</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>269</v>
+        <v>295</v>
       </c>
       <c r="O29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -4760,13 +5161,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>230</v>
+        <v>251</v>
       </c>
       <c r="X29" t="s">
-        <v>231</v>
+        <v>252</v>
       </c>
       <c r="Y29" t="s">
-        <v>270</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30">
@@ -4779,37 +5180,37 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="J30" t="s">
-        <v>273</v>
+        <v>299</v>
       </c>
       <c r="K30" t="s">
-        <v>274</v>
+        <v>300</v>
       </c>
       <c r="L30" t="s">
-        <v>275</v>
+        <v>301</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4825,47 +5226,51 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>277</v>
+        <v>303</v>
       </c>
       <c r="X30" t="s">
-        <v>278</v>
+        <v>304</v>
       </c>
       <c r="Y30" t="s">
-        <v>279</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36394</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>127059</v>
+      </c>
+      <c r="C31" t="s">
+        <v>306</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="J31" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="K31" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="L31" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
@@ -4882,56 +5287,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="X31" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="Y31" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36394</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>127060</v>
+      </c>
+      <c r="C32" t="s">
+        <v>315</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="J32" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="K32" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="L32" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="O32" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4943,56 +5352,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="X32" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="Y32" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36394</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>50888</v>
+      </c>
+      <c r="C33" t="s">
+        <v>325</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="J33" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="K33" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="L33" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="M33" t="n">
         <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="O33" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5004,56 +5417,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="X33" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="Y33" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36394</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>9992</v>
+      </c>
+      <c r="C34" t="s">
+        <v>332</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>304</v>
+        <v>334</v>
       </c>
       <c r="J34" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="K34" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="L34" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="M34" t="n">
         <v>5</v>
       </c>
       <c r="N34" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -5071,56 +5488,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="X34" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="Y34" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36394</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>35657</v>
+      </c>
+      <c r="C35" t="s">
+        <v>339</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>309</v>
+        <v>340</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="J35" t="s">
-        <v>311</v>
+        <v>342</v>
       </c>
       <c r="K35" t="s">
-        <v>312</v>
+        <v>343</v>
       </c>
       <c r="L35" t="s">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="O35" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5132,56 +5553,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="X35" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="Y35" t="s">
-        <v>317</v>
+        <v>348</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36394</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>86086</v>
+      </c>
+      <c r="C36" t="s">
+        <v>349</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="J36" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="K36" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="L36" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="O36" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5199,56 +5624,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>315</v>
+        <v>346</v>
       </c>
       <c r="X36" t="s">
-        <v>316</v>
+        <v>347</v>
       </c>
       <c r="Y36" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36394</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>127061</v>
+      </c>
+      <c r="C37" t="s">
+        <v>356</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>325</v>
+        <v>358</v>
       </c>
       <c r="J37" t="s">
-        <v>326</v>
+        <v>359</v>
       </c>
       <c r="K37" t="s">
-        <v>327</v>
+        <v>360</v>
       </c>
       <c r="L37" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>329</v>
+        <v>362</v>
       </c>
       <c r="O37" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5262,50 +5691,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>328</v>
+        <v>361</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36394</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>127062</v>
+      </c>
+      <c r="C38" t="s">
+        <v>363</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="J38" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
       <c r="K38" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="L38" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="O38" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -5323,47 +5756,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="X38" t="s">
-        <v>337</v>
+        <v>371</v>
       </c>
       <c r="Y38" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36394</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>127063</v>
+      </c>
+      <c r="C39" t="s">
+        <v>373</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="J39" t="s">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="K39" t="s">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="L39" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
@@ -5390,56 +5827,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="X39" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="Y39" t="s">
-        <v>346</v>
+        <v>381</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36394</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>127064</v>
+      </c>
+      <c r="C40" t="s">
+        <v>382</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>347</v>
+        <v>383</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>348</v>
+        <v>384</v>
       </c>
       <c r="J40" t="s">
-        <v>349</v>
+        <v>385</v>
       </c>
       <c r="K40" t="s">
-        <v>350</v>
+        <v>386</v>
       </c>
       <c r="L40" t="s">
-        <v>351</v>
+        <v>387</v>
       </c>
       <c r="M40" t="n">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="O40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5457,56 +5898,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>353</v>
+        <v>389</v>
       </c>
       <c r="X40" t="s">
-        <v>354</v>
+        <v>390</v>
       </c>
       <c r="Y40" t="s">
-        <v>355</v>
+        <v>391</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36394</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>82530</v>
+      </c>
+      <c r="C41" t="s">
+        <v>392</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="J41" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="K41" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="L41" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="O41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5518,56 +5963,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="X41" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="Y41" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>36394</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>127065</v>
+      </c>
+      <c r="C42" t="s">
+        <v>402</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>365</v>
+        <v>403</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>366</v>
+        <v>404</v>
       </c>
       <c r="J42" t="s">
-        <v>367</v>
+        <v>405</v>
       </c>
       <c r="K42" t="s">
-        <v>368</v>
+        <v>406</v>
       </c>
       <c r="L42" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="M42" t="n">
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>370</v>
+        <v>408</v>
       </c>
       <c r="O42" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="n">
@@ -5583,56 +6032,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>371</v>
+        <v>409</v>
       </c>
       <c r="X42" t="s">
-        <v>372</v>
+        <v>410</v>
       </c>
       <c r="Y42" t="s">
-        <v>373</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>36394</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>127066</v>
+      </c>
+      <c r="C43" t="s">
+        <v>412</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="J43" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
       <c r="K43" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="L43" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
       </c>
       <c r="N43" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="O43" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -5650,56 +6103,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="X43" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="Y43" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>36394</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>9071</v>
+      </c>
+      <c r="C44" t="s">
+        <v>422</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>383</v>
+        <v>423</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="J44" t="s">
-        <v>385</v>
+        <v>425</v>
       </c>
       <c r="K44" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="L44" t="s">
-        <v>387</v>
+        <v>427</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>388</v>
+        <v>428</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5715,56 +6172,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="X44" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="Y44" t="s">
-        <v>389</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>36394</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>127067</v>
+      </c>
+      <c r="C45" t="s">
+        <v>430</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>390</v>
+        <v>431</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>391</v>
+        <v>432</v>
       </c>
       <c r="J45" t="s">
-        <v>392</v>
+        <v>433</v>
       </c>
       <c r="K45" t="s">
-        <v>393</v>
+        <v>434</v>
       </c>
       <c r="L45" t="s">
-        <v>394</v>
+        <v>435</v>
       </c>
       <c r="M45" t="n">
         <v>5</v>
       </c>
       <c r="N45" t="s">
-        <v>395</v>
+        <v>436</v>
       </c>
       <c r="O45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5782,56 +6243,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="X45" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="Y45" t="s">
-        <v>396</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>36394</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>127068</v>
+      </c>
+      <c r="C46" t="s">
+        <v>438</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>397</v>
+        <v>439</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>398</v>
+        <v>440</v>
       </c>
       <c r="J46" t="s">
-        <v>399</v>
+        <v>441</v>
       </c>
       <c r="K46" t="s">
-        <v>400</v>
+        <v>442</v>
       </c>
       <c r="L46" t="s">
-        <v>401</v>
+        <v>443</v>
       </c>
       <c r="M46" t="n">
         <v>5</v>
       </c>
       <c r="N46" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="n">
         <v>5</v>
@@ -5849,47 +6314,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="X46" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="Y46" t="s">
-        <v>405</v>
+        <v>447</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>36394</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>1551</v>
+      </c>
+      <c r="C47" t="s">
+        <v>448</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>406</v>
+        <v>449</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>407</v>
+        <v>450</v>
       </c>
       <c r="J47" t="s">
-        <v>408</v>
+        <v>451</v>
       </c>
       <c r="K47" t="s">
-        <v>409</v>
+        <v>452</v>
       </c>
       <c r="L47" t="s">
-        <v>410</v>
+        <v>453</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
@@ -5906,56 +6375,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="X47" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="Y47" t="s">
-        <v>411</v>
+        <v>454</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>36394</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>9980</v>
+      </c>
+      <c r="C48" t="s">
+        <v>455</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>412</v>
+        <v>456</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>413</v>
+        <v>457</v>
       </c>
       <c r="J48" t="s">
-        <v>414</v>
+        <v>458</v>
       </c>
       <c r="K48" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="L48" t="s">
-        <v>416</v>
+        <v>460</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="O48" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5973,56 +6446,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="X48" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="Y48" t="s">
-        <v>417</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>36394</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>127069</v>
+      </c>
+      <c r="C49" t="s">
+        <v>462</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>418</v>
+        <v>463</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>419</v>
+        <v>464</v>
       </c>
       <c r="J49" t="s">
-        <v>420</v>
+        <v>465</v>
       </c>
       <c r="K49" t="s">
-        <v>421</v>
+        <v>466</v>
       </c>
       <c r="L49" t="s">
-        <v>422</v>
+        <v>467</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>402</v>
+        <v>444</v>
       </c>
       <c r="O49" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6040,56 +6517,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="X49" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="Y49" t="s">
-        <v>423</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>36394</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>17022</v>
+      </c>
+      <c r="C50" t="s">
+        <v>469</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="J50" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="K50" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="L50" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="O50" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -6111,56 +6592,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="X50" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="Y50" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>36394</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>127070</v>
+      </c>
+      <c r="C51" t="s">
+        <v>477</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="J51" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="K51" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="L51" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="O51" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -6182,56 +6667,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="X51" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="Y51" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>36394</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>120178</v>
+      </c>
+      <c r="C52" t="s">
+        <v>485</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="J52" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="K52" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="L52" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="O52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -6253,56 +6742,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>403</v>
+        <v>445</v>
       </c>
       <c r="X52" t="s">
-        <v>404</v>
+        <v>446</v>
       </c>
       <c r="Y52" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>36394</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>127071</v>
+      </c>
+      <c r="C53" t="s">
+        <v>492</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="J53" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="K53" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="L53" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
       <c r="N53" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -6324,56 +6817,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="X53" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="Y53" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>36394</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>127072</v>
+      </c>
+      <c r="C54" t="s">
+        <v>501</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="J54" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="K54" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="L54" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
@@ -6395,56 +6892,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="X54" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="Y54" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>36394</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>127073</v>
+      </c>
+      <c r="C55" t="s">
+        <v>508</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>458</v>
+        <v>509</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="J55" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="K55" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="L55" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="O55" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -6466,56 +6967,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
       <c r="X55" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="Y55" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>36394</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>16338</v>
+      </c>
+      <c r="C56" t="s">
+        <v>516</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="J56" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="K56" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="L56" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="M56" t="n">
         <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="O56" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P56" t="n">
         <v>3</v>
@@ -6539,50 +7044,54 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>36394</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>127074</v>
+      </c>
+      <c r="C57" t="s">
+        <v>523</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
       <c r="J57" t="s">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="K57" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="L57" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="O57" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P57" t="n">
         <v>4</v>
@@ -6606,50 +7115,54 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>36394</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>127075</v>
+      </c>
+      <c r="C58" t="s">
+        <v>530</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>477</v>
+        <v>531</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="J58" t="s">
-        <v>479</v>
+        <v>533</v>
       </c>
       <c r="K58" t="s">
-        <v>480</v>
+        <v>534</v>
       </c>
       <c r="L58" t="s">
-        <v>481</v>
+        <v>535</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
       </c>
       <c r="N58" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="O58" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
@@ -6663,50 +7176,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>482</v>
+        <v>536</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>36394</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>9541</v>
+      </c>
+      <c r="C59" t="s">
+        <v>537</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="J59" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="K59" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="L59" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="O59" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6730,50 +7247,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>36394</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>15352</v>
+      </c>
+      <c r="C60" t="s">
+        <v>543</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="J60" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="K60" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="L60" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
       </c>
       <c r="N60" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="O60" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6797,41 +7318,45 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>36394</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>127076</v>
+      </c>
+      <c r="C61" t="s">
+        <v>550</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="J61" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="K61" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="L61" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
@@ -6860,50 +7385,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>36394</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>127077</v>
+      </c>
+      <c r="C62" t="s">
+        <v>556</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>500</v>
+        <v>558</v>
       </c>
       <c r="J62" t="s">
-        <v>501</v>
+        <v>559</v>
       </c>
       <c r="K62" t="s">
-        <v>502</v>
+        <v>560</v>
       </c>
       <c r="L62" t="s">
-        <v>503</v>
+        <v>561</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="O62" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6925,56 +7454,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="X62" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="Y62" t="s">
-        <v>506</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>36394</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>3819</v>
+      </c>
+      <c r="C63" t="s">
+        <v>565</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>507</v>
+        <v>566</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>508</v>
+        <v>567</v>
       </c>
       <c r="J63" t="s">
-        <v>509</v>
+        <v>568</v>
       </c>
       <c r="K63" t="s">
-        <v>510</v>
+        <v>569</v>
       </c>
       <c r="L63" t="s">
-        <v>511</v>
+        <v>570</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="O63" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6996,56 +7529,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="X63" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="Y63" t="s">
-        <v>512</v>
+        <v>571</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>36394</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>85698</v>
+      </c>
+      <c r="C64" t="s">
+        <v>572</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>513</v>
+        <v>573</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>514</v>
+        <v>574</v>
       </c>
       <c r="J64" t="s">
-        <v>515</v>
+        <v>575</v>
       </c>
       <c r="K64" t="s">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="L64" t="s">
-        <v>517</v>
+        <v>577</v>
       </c>
       <c r="M64" t="n">
         <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -7067,56 +7604,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="X64" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="Y64" t="s">
-        <v>518</v>
+        <v>578</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>36394</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>127078</v>
+      </c>
+      <c r="C65" t="s">
+        <v>579</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>519</v>
+        <v>580</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>520</v>
+        <v>581</v>
       </c>
       <c r="J65" t="s">
-        <v>521</v>
+        <v>582</v>
       </c>
       <c r="K65" t="s">
-        <v>522</v>
+        <v>583</v>
       </c>
       <c r="L65" t="s">
-        <v>523</v>
+        <v>584</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="O65" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P65" t="n">
         <v>4</v>
@@ -7138,56 +7679,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="X65" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="Y65" t="s">
-        <v>525</v>
+        <v>586</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>36394</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>127079</v>
+      </c>
+      <c r="C66" t="s">
+        <v>587</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>526</v>
+        <v>588</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>527</v>
+        <v>589</v>
       </c>
       <c r="J66" t="s">
-        <v>528</v>
+        <v>590</v>
       </c>
       <c r="K66" t="s">
-        <v>529</v>
+        <v>591</v>
       </c>
       <c r="L66" t="s">
-        <v>530</v>
+        <v>592</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="O66" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7209,47 +7754,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>504</v>
+        <v>562</v>
       </c>
       <c r="X66" t="s">
-        <v>505</v>
+        <v>563</v>
       </c>
       <c r="Y66" t="s">
-        <v>531</v>
+        <v>593</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>36394</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>127080</v>
+      </c>
+      <c r="C67" t="s">
+        <v>594</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>532</v>
+        <v>595</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>533</v>
+        <v>596</v>
       </c>
       <c r="J67" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="K67" t="s">
-        <v>535</v>
+        <v>598</v>
       </c>
       <c r="L67" t="s">
-        <v>536</v>
+        <v>599</v>
       </c>
       <c r="M67" t="n">
         <v>5</v>
@@ -7276,56 +7825,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="X67" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="Y67" t="s">
-        <v>539</v>
+        <v>602</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>36394</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>33648</v>
+      </c>
+      <c r="C68" t="s">
+        <v>603</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>540</v>
+        <v>604</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>541</v>
+        <v>605</v>
       </c>
       <c r="J68" t="s">
-        <v>534</v>
+        <v>597</v>
       </c>
       <c r="K68" t="s">
-        <v>542</v>
+        <v>606</v>
       </c>
       <c r="L68" t="s">
-        <v>543</v>
+        <v>607</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>524</v>
+        <v>585</v>
       </c>
       <c r="O68" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P68" t="n">
         <v>3</v>
@@ -7347,47 +7900,51 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="X68" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="Y68" t="s">
-        <v>544</v>
+        <v>608</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>36394</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>127081</v>
+      </c>
+      <c r="C69" t="s">
+        <v>609</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>545</v>
+        <v>610</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>546</v>
+        <v>611</v>
       </c>
       <c r="J69" t="s">
-        <v>547</v>
+        <v>612</v>
       </c>
       <c r="K69" t="s">
-        <v>548</v>
+        <v>613</v>
       </c>
       <c r="L69" t="s">
-        <v>549</v>
+        <v>614</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
@@ -7414,56 +7971,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>537</v>
+        <v>600</v>
       </c>
       <c r="X69" t="s">
-        <v>538</v>
+        <v>601</v>
       </c>
       <c r="Y69" t="s">
-        <v>550</v>
+        <v>615</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>36394</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>5596</v>
+      </c>
+      <c r="C70" t="s">
+        <v>616</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>551</v>
+        <v>617</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>552</v>
+        <v>618</v>
       </c>
       <c r="J70" t="s">
-        <v>553</v>
+        <v>619</v>
       </c>
       <c r="K70" t="s">
-        <v>554</v>
+        <v>620</v>
       </c>
       <c r="L70" t="s">
-        <v>555</v>
+        <v>621</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="O70" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7485,56 +8046,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>557</v>
+        <v>623</v>
       </c>
       <c r="X70" t="s">
-        <v>558</v>
+        <v>624</v>
       </c>
       <c r="Y70" t="s">
-        <v>559</v>
+        <v>625</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>36394</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>127082</v>
+      </c>
+      <c r="C71" t="s">
+        <v>626</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>560</v>
+        <v>627</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>561</v>
+        <v>628</v>
       </c>
       <c r="J71" t="s">
-        <v>562</v>
+        <v>629</v>
       </c>
       <c r="K71" t="s">
-        <v>563</v>
+        <v>630</v>
       </c>
       <c r="L71" t="s">
-        <v>564</v>
+        <v>631</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="O71" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P71" t="n">
         <v>4</v>
@@ -7556,56 +8121,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="X71" t="s">
-        <v>566</v>
+        <v>633</v>
       </c>
       <c r="Y71" t="s">
-        <v>567</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>36394</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>86086</v>
+      </c>
+      <c r="C72" t="s">
+        <v>349</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>568</v>
+        <v>635</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>569</v>
+        <v>636</v>
       </c>
       <c r="J72" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="K72" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="L72" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="O72" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P72" t="n">
         <v>4</v>
@@ -7627,56 +8196,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="X72" t="s">
-        <v>566</v>
+        <v>633</v>
       </c>
       <c r="Y72" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>36394</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>31223</v>
+      </c>
+      <c r="C73" t="s">
+        <v>641</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>574</v>
+        <v>642</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>575</v>
+        <v>643</v>
       </c>
       <c r="J73" t="s">
-        <v>570</v>
+        <v>637</v>
       </c>
       <c r="K73" t="s">
-        <v>576</v>
+        <v>644</v>
       </c>
       <c r="L73" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="O73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7698,47 +8271,51 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="X73" t="s">
-        <v>566</v>
+        <v>633</v>
       </c>
       <c r="Y73" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>36394</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>127083</v>
+      </c>
+      <c r="C74" t="s">
+        <v>647</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>579</v>
+        <v>648</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>580</v>
+        <v>649</v>
       </c>
       <c r="J74" t="s">
-        <v>581</v>
+        <v>650</v>
       </c>
       <c r="K74" t="s">
-        <v>582</v>
+        <v>651</v>
       </c>
       <c r="L74" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
@@ -7765,56 +8342,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="X74" t="s">
-        <v>566</v>
+        <v>633</v>
       </c>
       <c r="Y74" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>36394</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>127084</v>
+      </c>
+      <c r="C75" t="s">
+        <v>654</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>585</v>
+        <v>655</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>586</v>
+        <v>656</v>
       </c>
       <c r="J75" t="s">
-        <v>587</v>
+        <v>657</v>
       </c>
       <c r="K75" t="s">
-        <v>588</v>
+        <v>658</v>
       </c>
       <c r="L75" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="O75" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7836,56 +8417,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>565</v>
+        <v>632</v>
       </c>
       <c r="X75" t="s">
-        <v>566</v>
+        <v>633</v>
       </c>
       <c r="Y75" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>36394</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>127085</v>
+      </c>
+      <c r="C76" t="s">
+        <v>661</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>591</v>
+        <v>662</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>592</v>
+        <v>663</v>
       </c>
       <c r="J76" t="s">
-        <v>593</v>
+        <v>664</v>
       </c>
       <c r="K76" t="s">
-        <v>594</v>
+        <v>665</v>
       </c>
       <c r="L76" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
       </c>
       <c r="N76" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>3</v>
@@ -7907,56 +8492,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="X76" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="Y76" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>36394</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>127086</v>
+      </c>
+      <c r="C77" t="s">
+        <v>671</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="J77" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="K77" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="L77" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="O77" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7978,56 +8567,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="X77" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="Y77" t="s">
-        <v>607</v>
+        <v>679</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>36394</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>127087</v>
+      </c>
+      <c r="C78" t="s">
+        <v>680</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>608</v>
+        <v>681</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>609</v>
+        <v>682</v>
       </c>
       <c r="J78" t="s">
-        <v>610</v>
+        <v>683</v>
       </c>
       <c r="K78" t="s">
-        <v>611</v>
+        <v>684</v>
       </c>
       <c r="L78" t="s">
-        <v>612</v>
+        <v>685</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -8049,56 +8642,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="X78" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="Y78" t="s">
-        <v>613</v>
+        <v>686</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>36394</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>11292</v>
+      </c>
+      <c r="C79" t="s">
+        <v>687</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>615</v>
+        <v>689</v>
       </c>
       <c r="J79" t="s">
-        <v>616</v>
+        <v>690</v>
       </c>
       <c r="K79" t="s">
-        <v>617</v>
+        <v>691</v>
       </c>
       <c r="L79" t="s">
-        <v>618</v>
+        <v>692</v>
       </c>
       <c r="M79" t="n">
         <v>5</v>
       </c>
       <c r="N79" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="O79" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -8120,56 +8717,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="X79" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="Y79" t="s">
-        <v>619</v>
+        <v>693</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>36394</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>8101</v>
+      </c>
+      <c r="C80" t="s">
+        <v>694</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="J80" t="s">
-        <v>622</v>
+        <v>697</v>
       </c>
       <c r="K80" t="s">
-        <v>623</v>
+        <v>698</v>
       </c>
       <c r="L80" t="s">
-        <v>624</v>
+        <v>699</v>
       </c>
       <c r="M80" t="n">
         <v>5</v>
       </c>
       <c r="N80" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="O80" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -8191,56 +8792,60 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
       <c r="X80" t="s">
-        <v>606</v>
+        <v>678</v>
       </c>
       <c r="Y80" t="s">
-        <v>626</v>
+        <v>701</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>36394</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>127088</v>
+      </c>
+      <c r="C81" t="s">
+        <v>702</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>627</v>
+        <v>703</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>628</v>
+        <v>704</v>
       </c>
       <c r="J81" t="s">
-        <v>629</v>
+        <v>705</v>
       </c>
       <c r="K81" t="s">
-        <v>630</v>
+        <v>706</v>
       </c>
       <c r="L81" t="s">
-        <v>631</v>
+        <v>707</v>
       </c>
       <c r="M81" t="n">
         <v>5</v>
       </c>
       <c r="N81" t="s">
-        <v>625</v>
+        <v>700</v>
       </c>
       <c r="O81" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8262,56 +8867,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>632</v>
+        <v>708</v>
       </c>
       <c r="X81" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="Y81" t="s">
-        <v>634</v>
+        <v>710</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>36394</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>127089</v>
+      </c>
+      <c r="C82" t="s">
+        <v>711</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>635</v>
+        <v>712</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>636</v>
+        <v>713</v>
       </c>
       <c r="J82" t="s">
-        <v>637</v>
+        <v>714</v>
       </c>
       <c r="K82" t="s">
-        <v>638</v>
+        <v>715</v>
       </c>
       <c r="L82" t="s">
-        <v>639</v>
+        <v>716</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>640</v>
+        <v>717</v>
       </c>
       <c r="O82" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P82" t="s"/>
       <c r="Q82" t="s"/>
@@ -8323,56 +8932,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>632</v>
+        <v>708</v>
       </c>
       <c r="X82" t="s">
-        <v>633</v>
+        <v>709</v>
       </c>
       <c r="Y82" t="s">
-        <v>641</v>
+        <v>718</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>36394</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>127090</v>
+      </c>
+      <c r="C83" t="s">
+        <v>719</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>642</v>
+        <v>720</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>643</v>
+        <v>721</v>
       </c>
       <c r="J83" t="s">
-        <v>644</v>
+        <v>722</v>
       </c>
       <c r="K83" t="s">
-        <v>645</v>
+        <v>723</v>
       </c>
       <c r="L83" t="s">
-        <v>646</v>
+        <v>724</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>647</v>
+        <v>725</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8394,56 +9007,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>648</v>
+        <v>726</v>
       </c>
       <c r="X83" t="s">
-        <v>649</v>
+        <v>727</v>
       </c>
       <c r="Y83" t="s">
-        <v>650</v>
+        <v>728</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>36394</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>127091</v>
+      </c>
+      <c r="C84" t="s">
+        <v>729</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>651</v>
+        <v>730</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>652</v>
+        <v>731</v>
       </c>
       <c r="J84" t="s">
-        <v>653</v>
+        <v>732</v>
       </c>
       <c r="K84" t="s">
-        <v>654</v>
+        <v>733</v>
       </c>
       <c r="L84" t="s">
-        <v>655</v>
+        <v>734</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>647</v>
+        <v>725</v>
       </c>
       <c r="O84" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="P84" t="n">
         <v>4</v>
@@ -8465,56 +9082,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>648</v>
+        <v>726</v>
       </c>
       <c r="X84" t="s">
-        <v>649</v>
+        <v>727</v>
       </c>
       <c r="Y84" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>36394</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>127092</v>
+      </c>
+      <c r="C85" t="s">
+        <v>736</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>657</v>
+        <v>737</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
       <c r="J85" t="s">
-        <v>659</v>
+        <v>739</v>
       </c>
       <c r="K85" t="s">
-        <v>660</v>
+        <v>740</v>
       </c>
       <c r="L85" t="s">
-        <v>661</v>
+        <v>741</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>662</v>
+        <v>742</v>
       </c>
       <c r="O85" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P85" t="n">
         <v>3</v>
@@ -8536,56 +9157,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>663</v>
+        <v>743</v>
       </c>
       <c r="X85" t="s">
-        <v>664</v>
+        <v>744</v>
       </c>
       <c r="Y85" t="s">
-        <v>665</v>
+        <v>745</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>36394</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>81673</v>
+      </c>
+      <c r="C86" t="s">
+        <v>746</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>666</v>
+        <v>747</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>667</v>
+        <v>748</v>
       </c>
       <c r="J86" t="s">
-        <v>668</v>
+        <v>749</v>
       </c>
       <c r="K86" t="s">
-        <v>669</v>
+        <v>750</v>
       </c>
       <c r="L86" t="s">
-        <v>670</v>
+        <v>751</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>671</v>
+        <v>752</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8607,56 +9232,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>672</v>
+        <v>753</v>
       </c>
       <c r="X86" t="s">
-        <v>673</v>
+        <v>754</v>
       </c>
       <c r="Y86" t="s">
-        <v>674</v>
+        <v>755</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>36394</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>127093</v>
+      </c>
+      <c r="C87" t="s">
+        <v>756</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>675</v>
+        <v>757</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>676</v>
+        <v>758</v>
       </c>
       <c r="J87" t="s">
-        <v>677</v>
+        <v>759</v>
       </c>
       <c r="K87" t="s">
-        <v>678</v>
+        <v>760</v>
       </c>
       <c r="L87" t="s">
-        <v>679</v>
+        <v>761</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>680</v>
+        <v>762</v>
       </c>
       <c r="O87" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8678,56 +9307,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>681</v>
+        <v>763</v>
       </c>
       <c r="X87" t="s">
-        <v>682</v>
+        <v>764</v>
       </c>
       <c r="Y87" t="s">
-        <v>683</v>
+        <v>765</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>36394</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>109991</v>
+      </c>
+      <c r="C88" t="s">
+        <v>766</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>684</v>
+        <v>767</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>685</v>
+        <v>768</v>
       </c>
       <c r="J88" t="s">
-        <v>686</v>
+        <v>769</v>
       </c>
       <c r="K88" t="s">
-        <v>687</v>
+        <v>770</v>
       </c>
       <c r="L88" t="s">
-        <v>688</v>
+        <v>771</v>
       </c>
       <c r="M88" t="n">
         <v>5</v>
       </c>
       <c r="N88" t="s">
-        <v>689</v>
+        <v>772</v>
       </c>
       <c r="O88" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8749,56 +9382,60 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>681</v>
+        <v>763</v>
       </c>
       <c r="X88" t="s">
-        <v>682</v>
+        <v>764</v>
       </c>
       <c r="Y88" t="s">
-        <v>690</v>
+        <v>773</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>36394</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>127094</v>
+      </c>
+      <c r="C89" t="s">
+        <v>774</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>691</v>
+        <v>775</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>692</v>
+        <v>776</v>
       </c>
       <c r="J89" t="s">
-        <v>693</v>
+        <v>777</v>
       </c>
       <c r="K89" t="s">
-        <v>694</v>
+        <v>778</v>
       </c>
       <c r="L89" t="s">
-        <v>695</v>
+        <v>779</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>696</v>
+        <v>780</v>
       </c>
       <c r="O89" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8820,56 +9457,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="X89" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="Y89" t="s">
-        <v>699</v>
+        <v>783</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>36394</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>127095</v>
+      </c>
+      <c r="C90" t="s">
+        <v>784</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>700</v>
+        <v>785</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>701</v>
+        <v>786</v>
       </c>
       <c r="J90" t="s">
-        <v>702</v>
+        <v>787</v>
       </c>
       <c r="K90" t="s">
-        <v>703</v>
+        <v>788</v>
       </c>
       <c r="L90" t="s">
-        <v>704</v>
+        <v>789</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>689</v>
+        <v>772</v>
       </c>
       <c r="O90" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P90" t="n">
         <v>4</v>
@@ -8891,56 +9532,60 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="X90" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="Y90" t="s">
-        <v>705</v>
+        <v>790</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>36394</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>127096</v>
+      </c>
+      <c r="C91" t="s">
+        <v>791</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>706</v>
+        <v>792</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>707</v>
+        <v>793</v>
       </c>
       <c r="J91" t="s">
-        <v>702</v>
+        <v>787</v>
       </c>
       <c r="K91" t="s">
-        <v>708</v>
+        <v>794</v>
       </c>
       <c r="L91" t="s">
-        <v>709</v>
+        <v>795</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>689</v>
+        <v>772</v>
       </c>
       <c r="O91" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8962,47 +9607,51 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>697</v>
+        <v>781</v>
       </c>
       <c r="X91" t="s">
-        <v>698</v>
+        <v>782</v>
       </c>
       <c r="Y91" t="s">
-        <v>710</v>
+        <v>796</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>36394</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>127097</v>
+      </c>
+      <c r="C92" t="s">
+        <v>797</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>711</v>
+        <v>798</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>712</v>
+        <v>799</v>
       </c>
       <c r="J92" t="s">
-        <v>702</v>
+        <v>787</v>
       </c>
       <c r="K92" t="s">
-        <v>713</v>
+        <v>800</v>
       </c>
       <c r="L92" t="s">
-        <v>714</v>
+        <v>801</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
@@ -9029,56 +9678,60 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>715</v>
+        <v>802</v>
       </c>
       <c r="X92" t="s">
-        <v>716</v>
+        <v>803</v>
       </c>
       <c r="Y92" t="s">
-        <v>717</v>
+        <v>804</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>36394</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>14158</v>
+      </c>
+      <c r="C93" t="s">
+        <v>805</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>718</v>
+        <v>806</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>719</v>
+        <v>807</v>
       </c>
       <c r="J93" t="s">
-        <v>720</v>
+        <v>808</v>
       </c>
       <c r="K93" t="s">
-        <v>721</v>
+        <v>809</v>
       </c>
       <c r="L93" t="s">
-        <v>722</v>
+        <v>810</v>
       </c>
       <c r="M93" t="n">
         <v>5</v>
       </c>
       <c r="N93" t="s">
-        <v>723</v>
+        <v>811</v>
       </c>
       <c r="O93" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -9100,56 +9753,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="X93" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="Y93" t="s">
-        <v>726</v>
+        <v>814</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>36394</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>127098</v>
+      </c>
+      <c r="C94" t="s">
+        <v>815</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>727</v>
+        <v>816</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>728</v>
+        <v>817</v>
       </c>
       <c r="J94" t="s">
-        <v>729</v>
+        <v>818</v>
       </c>
       <c r="K94" t="s">
-        <v>730</v>
+        <v>819</v>
       </c>
       <c r="L94" t="s">
-        <v>731</v>
+        <v>820</v>
       </c>
       <c r="M94" t="n">
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>696</v>
+        <v>780</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -9171,56 +9828,60 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="X94" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="Y94" t="s">
-        <v>732</v>
+        <v>821</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>36394</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>51853</v>
+      </c>
+      <c r="C95" t="s">
+        <v>822</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>733</v>
+        <v>823</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>734</v>
+        <v>824</v>
       </c>
       <c r="J95" t="s">
-        <v>735</v>
+        <v>825</v>
       </c>
       <c r="K95" t="s">
-        <v>736</v>
+        <v>826</v>
       </c>
       <c r="L95" t="s">
-        <v>737</v>
+        <v>827</v>
       </c>
       <c r="M95" t="n">
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>738</v>
+        <v>828</v>
       </c>
       <c r="O95" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P95" t="n">
         <v>2</v>
@@ -9242,56 +9903,60 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="X95" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="Y95" t="s">
-        <v>739</v>
+        <v>829</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>36394</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>39392</v>
+      </c>
+      <c r="C96" t="s">
+        <v>830</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>740</v>
+        <v>831</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>741</v>
+        <v>832</v>
       </c>
       <c r="J96" t="s">
-        <v>742</v>
+        <v>833</v>
       </c>
       <c r="K96" t="s">
-        <v>743</v>
+        <v>834</v>
       </c>
       <c r="L96" t="s">
-        <v>744</v>
+        <v>835</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>745</v>
+        <v>836</v>
       </c>
       <c r="O96" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9313,47 +9978,51 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="X96" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="Y96" t="s">
-        <v>746</v>
+        <v>837</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>36394</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>127099</v>
+      </c>
+      <c r="C97" t="s">
+        <v>838</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>747</v>
+        <v>839</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>748</v>
+        <v>840</v>
       </c>
       <c r="J97" t="s">
-        <v>749</v>
+        <v>841</v>
       </c>
       <c r="K97" t="s">
-        <v>750</v>
+        <v>842</v>
       </c>
       <c r="L97" t="s">
-        <v>751</v>
+        <v>843</v>
       </c>
       <c r="M97" t="n">
         <v>2</v>
@@ -9380,56 +10049,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>724</v>
+        <v>812</v>
       </c>
       <c r="X97" t="s">
-        <v>725</v>
+        <v>813</v>
       </c>
       <c r="Y97" t="s">
-        <v>752</v>
+        <v>844</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>36394</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>127100</v>
+      </c>
+      <c r="C98" t="s">
+        <v>845</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>753</v>
+        <v>846</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>754</v>
+        <v>847</v>
       </c>
       <c r="J98" t="s">
-        <v>755</v>
+        <v>848</v>
       </c>
       <c r="K98" t="s">
-        <v>756</v>
+        <v>849</v>
       </c>
       <c r="L98" t="s">
-        <v>757</v>
+        <v>850</v>
       </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
       <c r="N98" t="s">
-        <v>758</v>
+        <v>851</v>
       </c>
       <c r="O98" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P98" t="n">
         <v>1</v>
@@ -9453,50 +10126,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>759</v>
+        <v>852</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>36394</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>127101</v>
+      </c>
+      <c r="C99" t="s">
+        <v>853</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>760</v>
+        <v>854</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>761</v>
+        <v>855</v>
       </c>
       <c r="J99" t="s">
-        <v>762</v>
+        <v>856</v>
       </c>
       <c r="K99" t="s">
-        <v>763</v>
+        <v>857</v>
       </c>
       <c r="L99" t="s">
-        <v>764</v>
+        <v>858</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>765</v>
+        <v>859</v>
       </c>
       <c r="O99" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P99" t="n">
         <v>3</v>
@@ -9520,50 +10197,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>766</v>
+        <v>860</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>36394</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>127102</v>
+      </c>
+      <c r="C100" t="s">
+        <v>861</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>767</v>
+        <v>862</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>768</v>
+        <v>863</v>
       </c>
       <c r="J100" t="s">
-        <v>769</v>
+        <v>864</v>
       </c>
       <c r="K100" t="s">
-        <v>770</v>
+        <v>865</v>
       </c>
       <c r="L100" t="s">
-        <v>771</v>
+        <v>866</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>765</v>
+        <v>859</v>
       </c>
       <c r="O100" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9587,50 +10268,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>772</v>
+        <v>867</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>36394</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>98901</v>
+      </c>
+      <c r="C101" t="s">
+        <v>868</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>773</v>
+        <v>869</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>774</v>
+        <v>870</v>
       </c>
       <c r="J101" t="s">
-        <v>775</v>
+        <v>871</v>
       </c>
       <c r="K101" t="s">
-        <v>776</v>
+        <v>872</v>
       </c>
       <c r="L101" t="s">
-        <v>777</v>
+        <v>873</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>778</v>
+        <v>874</v>
       </c>
       <c r="O101" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P101" t="n">
         <v>2</v>
@@ -9654,50 +10339,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>777</v>
+        <v>873</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>36394</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>127103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>875</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>779</v>
+        <v>876</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>780</v>
+        <v>877</v>
       </c>
       <c r="J102" t="s">
-        <v>781</v>
+        <v>878</v>
       </c>
       <c r="K102" t="s">
-        <v>782</v>
+        <v>879</v>
       </c>
       <c r="L102" t="s">
-        <v>783</v>
+        <v>880</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>784</v>
+        <v>881</v>
       </c>
       <c r="O102" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -9719,50 +10408,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>785</v>
+        <v>882</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>36394</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>127104</v>
+      </c>
+      <c r="C103" t="s">
+        <v>883</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>786</v>
+        <v>884</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>787</v>
+        <v>885</v>
       </c>
       <c r="J103" t="s">
-        <v>788</v>
+        <v>886</v>
       </c>
       <c r="K103" t="s">
-        <v>789</v>
+        <v>887</v>
       </c>
       <c r="L103" t="s">
-        <v>790</v>
+        <v>888</v>
       </c>
       <c r="M103" t="n">
         <v>4</v>
       </c>
       <c r="N103" t="s">
-        <v>791</v>
+        <v>889</v>
       </c>
       <c r="O103" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P103" t="n">
         <v>3</v>
@@ -9784,41 +10477,45 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>790</v>
+        <v>888</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>36394</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>890</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>792</v>
+        <v>891</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>793</v>
+        <v>892</v>
       </c>
       <c r="J104" t="s">
-        <v>794</v>
+        <v>893</v>
       </c>
       <c r="K104" t="s">
-        <v>795</v>
+        <v>894</v>
       </c>
       <c r="L104" t="s">
-        <v>796</v>
+        <v>895</v>
       </c>
       <c r="M104" t="n">
         <v>3</v>
@@ -9837,7 +10534,7 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>796</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
